--- a/Android/ExcelData/PC_Level_Stat_Table.xlsx
+++ b/Android/ExcelData/PC_Level_Stat_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9703DD4A-3CAE-46C7-A7DE-1EC0DD726725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407AB04-22C7-4CB0-BA90-99ACBD1A98CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!시뮬레이터" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
   <si>
     <t>캐릭터 설명(기획)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -390,6 +390,34 @@
   </si>
   <si>
     <t>auto_recovery</t>
+  </si>
+  <si>
+    <t>전열용 루시아</t>
+  </si>
+  <si>
+    <t>전열용 루시아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 라일라</t>
+  </si>
+  <si>
+    <t>전열용 라일라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 클레어 1</t>
+  </si>
+  <si>
+    <t>전열용 클레어 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열용 클레어 2</t>
+  </si>
+  <si>
+    <t>전열용 클레어 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2204,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5586,6 +5614,1422 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>100011</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11">
+        <v>5</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="O59" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G60" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="O60" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="7">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4">
+        <v>6</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G61" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O61" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="7">
+        <v>4</v>
+      </c>
+      <c r="D62" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O62" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="7">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G63" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O63" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="14">
+        <v>100011</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="16">
+        <v>6</v>
+      </c>
+      <c r="D64" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G64" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H64" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I64" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="K64" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="L64" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M64" s="16">
+        <v>0</v>
+      </c>
+      <c r="N64" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O64" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P64" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="Q64" s="16">
+        <v>0</v>
+      </c>
+      <c r="R64" s="16">
+        <v>0</v>
+      </c>
+      <c r="S64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>100012</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H65" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M65" s="13">
+        <v>0</v>
+      </c>
+      <c r="N65" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O65" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="P65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>0</v>
+      </c>
+      <c r="R65" s="13">
+        <v>0</v>
+      </c>
+      <c r="S65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="7">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G66" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H66" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="O66" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G67" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H67" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O67" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="7">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G68" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H68" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O68" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>100012</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="7">
+        <v>5</v>
+      </c>
+      <c r="D69" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G69" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H69" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O69" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16">
+        <v>100012</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="16">
+        <v>6</v>
+      </c>
+      <c r="D70" s="16">
+        <v>8</v>
+      </c>
+      <c r="E70" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="G70" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H70" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="J70" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K70" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="L70" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M70" s="16">
+        <v>0</v>
+      </c>
+      <c r="N70" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O70" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P70" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <v>0</v>
+      </c>
+      <c r="R70" s="16">
+        <v>0</v>
+      </c>
+      <c r="S70" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>100013</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F71" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H71" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0</v>
+      </c>
+      <c r="N71" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O71" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="P71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>0</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0</v>
+      </c>
+      <c r="S71" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>100013</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G72" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="O72" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>100013</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="7">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H73" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="N73" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O73" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>100013</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="7">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J74" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O74" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>100013</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="7">
+        <v>5</v>
+      </c>
+      <c r="D75" s="7">
+        <v>9</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H75" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O75" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16">
+        <v>100013</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="16">
+        <v>6</v>
+      </c>
+      <c r="D76" s="16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E76" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="G76" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H76" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="J76" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K76" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L76" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M76" s="16">
+        <v>0</v>
+      </c>
+      <c r="N76" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O76" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P76" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16">
+        <v>0</v>
+      </c>
+      <c r="R76" s="16">
+        <v>0</v>
+      </c>
+      <c r="S76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>100014</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="E77" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F77" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G77" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H77" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="L77" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M77" s="13">
+        <v>0</v>
+      </c>
+      <c r="N77" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O77" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="P77" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>0</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0</v>
+      </c>
+      <c r="S77" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>100014</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2</v>
+      </c>
+      <c r="D78" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G78" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J78" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="O78" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>100014</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="7">
+        <v>3</v>
+      </c>
+      <c r="D79" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H79" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O79" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>100014</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="7">
+        <v>4</v>
+      </c>
+      <c r="D80" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G80" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J80" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O80" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>100014</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="7">
+        <v>5</v>
+      </c>
+      <c r="D81" s="7">
+        <v>9</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H81" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O81" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="16">
+        <v>100014</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="16">
+        <v>6</v>
+      </c>
+      <c r="D82" s="16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F82" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="G82" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H82" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I82" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="J82" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L82" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M82" s="16">
+        <v>0</v>
+      </c>
+      <c r="N82" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O82" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P82" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16">
+        <v>0</v>
+      </c>
+      <c r="R82" s="16">
+        <v>0</v>
+      </c>
+      <c r="S82" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ExcelData/PC_Level_Stat_Table.xlsx
+++ b/Android/ExcelData/PC_Level_Stat_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407AB04-22C7-4CB0-BA90-99ACBD1A98CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733EB2F7-2FBC-444D-A87A-9CD8321A7AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39585" yWindow="2265" windowWidth="37215" windowHeight="19335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!시뮬레이터" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>tc={E5F38DBE-8296-4734-8806-8AE5400BD286}</author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{65BEA5D5-17A3-4CC4-A0D6-489D85C6267F}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -51,7 +51,7 @@
     상태이상 저항 값</t>
       </text>
     </comment>
-    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{E5F38DBE-8296-4734-8806-8AE5400BD286}">
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -69,7 +69,7 @@
     <author>tc={31973630-B100-47B2-BD67-62F94B0B78E9}</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{31973630-B100-47B2-BD67-62F94B0B78E9}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>캐릭터 설명(기획)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비중 값 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Player_Character_Level_Stat_Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -347,77 +343,117 @@
     <t>life</t>
   </si>
   <si>
+    <t>magic_attack</t>
+  </si>
+  <si>
+    <t>physics_defend</t>
+  </si>
+  <si>
+    <t>magic_defend</t>
+  </si>
+  <si>
+    <t>비중 값 입력 - 기준 비중 직업: 밸런싱형 물리 근거리 딜러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>physics_attack</t>
-  </si>
-  <si>
-    <t>magic_attack</t>
-  </si>
-  <si>
-    <t>physics_defend</t>
-  </si>
-  <si>
-    <t>magic_defend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_life_recovery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics_critical_power_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_critical_power_add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_critical_chance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>physics_critical_chance</t>
-  </si>
-  <si>
-    <t>magic_critical_chance</t>
-  </si>
-  <si>
-    <t>physics_critical_power_add</t>
-  </si>
-  <si>
-    <t>magic_critical_power_add</t>
-  </si>
-  <si>
-    <t>attack_life_recovery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>evasion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>accuracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">resist </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>auto_recovery</t>
-  </si>
-  <si>
-    <t>전열용 루시아</t>
-  </si>
-  <si>
-    <t>전열용 루시아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전열용 라일라</t>
-  </si>
-  <si>
-    <t>전열용 라일라</t>
+    <t>#배율 계산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전열용 클레어 1</t>
-  </si>
-  <si>
-    <t>전열용 클레어 1</t>
+    <t>나눠지는 능력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 합산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#사거리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전열용 클레어 2</t>
-  </si>
-  <si>
-    <t>전열용 클레어 2</t>
+    <t>사거리 반영해서 불러온</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#배율 합산</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#체력 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#사거리_to_체력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#탱킹력_계산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 비율</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#탱킹력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +547,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -586,15 +634,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -718,11 +757,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,7 +864,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,8 +874,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -782,19 +886,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,18 +1271,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477203F5-6683-4E5A-8643-44B3672670B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AE58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="21" t="s">
-        <v>59</v>
+      <c r="C1" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -1230,55 +1412,55 @@
       <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1286,55 +1468,55 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
-        <v>5</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="C5" s="22">
+        <v>8</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
         <v>0.01</v>
       </c>
-      <c r="H5" s="24">
+      <c r="G5" s="23">
         <v>0.01</v>
       </c>
-      <c r="I5" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="H5" s="23">
         <v>0.01</v>
       </c>
-      <c r="K5" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
         <v>1E-3</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>1E-3</v>
       </c>
-      <c r="O5" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="P5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>0</v>
-      </c>
-      <c r="R5" s="24">
-        <v>0</v>
-      </c>
-      <c r="S5" s="25">
+      <c r="O5" s="23">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1342,32 +1524,32 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
-        <v>5.5</v>
+      <c r="C6" s="25">
+        <v>8.5</v>
       </c>
       <c r="D6" s="7">
-        <v>0.25</v>
+        <v>1.05</v>
       </c>
       <c r="E6" s="7">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="G6" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G6" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H6" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K6" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -1379,7 +1561,7 @@
         <v>2E-3</v>
       </c>
       <c r="O6" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -1390,7 +1572,7 @@
       <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1398,17 +1580,17 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="28">
-        <v>6</v>
+      <c r="C7" s="27">
+        <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="4">
         <v>0.02</v>
@@ -1417,13 +1599,13 @@
         <v>0.02</v>
       </c>
       <c r="I7" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K7" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -1435,7 +1617,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O7" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -1446,7 +1628,7 @@
       <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1454,32 +1636,32 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
-        <v>6.5</v>
+      <c r="C8" s="25">
+        <v>9.5</v>
       </c>
       <c r="D8" s="7">
-        <v>0.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E8" s="7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="G8" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H8" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K8" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -1491,7 +1673,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="O8" s="7">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -1502,7 +1684,7 @@
       <c r="R8" s="4">
         <v>0</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1510,17 +1692,17 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="28">
-        <v>7</v>
+      <c r="C9" s="27">
+        <v>10</v>
       </c>
       <c r="D9" s="4">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="E9" s="4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="G9" s="4">
         <v>0.03</v>
@@ -1529,13 +1711,13 @@
         <v>0.03</v>
       </c>
       <c r="I9" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="K9" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -1547,7 +1729,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O9" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
@@ -1558,7 +1740,7 @@
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1566,32 +1748,32 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="29">
-        <v>7.5</v>
+      <c r="C10" s="28">
+        <v>10.5</v>
       </c>
       <c r="D10" s="16">
-        <v>0.45</v>
+        <v>1.25</v>
       </c>
       <c r="E10" s="16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F10" s="14">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G10" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G10" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I10" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J10" s="16">
-        <v>0.06</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K10" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -1603,7 +1785,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="O10" s="16">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -1614,12 +1796,12 @@
       <c r="R10" s="14">
         <v>0</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1789,71 +1971,71 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <f t="shared" ref="C16:S16" si="0">C5*$U$3</f>
-        <v>500</v>
-      </c>
-      <c r="D16" s="20">
+        <v>800</v>
+      </c>
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E16" s="20">
+        <v>100</v>
+      </c>
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16" s="20">
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="20">
+      <c r="I16" s="19">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="19">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1862,71 +2044,71 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:S17" si="1">C6*$U$3</f>
-        <v>550</v>
-      </c>
-      <c r="D17" s="20">
+        <v>850</v>
+      </c>
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E17" s="20">
+        <v>105</v>
+      </c>
+      <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="1"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J17" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L17" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="L17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1935,71 +2117,71 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <f t="shared" ref="C18:S18" si="2">C7*$U$3</f>
-        <v>600</v>
-      </c>
-      <c r="D18" s="20">
+        <v>900</v>
+      </c>
+      <c r="D18" s="19">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E18" s="20">
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E18" s="19">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I18" s="20">
+      <c r="H18" s="19">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J18" s="20">
+        <v>2</v>
+      </c>
+      <c r="I18" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L18" s="20">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="20">
+      <c r="L18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="P18" s="20">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2008,71 +2190,71 @@
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <f t="shared" ref="C19:S19" si="3">C8*$U$3</f>
-        <v>650</v>
-      </c>
-      <c r="D19" s="20">
+        <v>950</v>
+      </c>
+      <c r="D19" s="19">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="20">
+        <v>114.99999999999999</v>
+      </c>
+      <c r="E19" s="19">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="3"/>
-        <v>0.65</v>
-      </c>
-      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="H19" s="20">
+      <c r="G19" s="19">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="I19" s="20">
+      <c r="H19" s="19">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J19" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="19">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="L19" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="L19" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="P19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2081,71 +2263,71 @@
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f t="shared" ref="C20:S21" si="4">C9*$U$3</f>
-        <v>700</v>
-      </c>
-      <c r="D20" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="19">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="E20" s="20">
+        <v>120</v>
+      </c>
+      <c r="E20" s="19">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="4"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H20" s="20">
+      <c r="G20" s="19">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I20" s="20">
+      <c r="H20" s="19">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="J20" s="20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="19">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="L20" s="20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="L20" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="P20" s="20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2154,71 +2336,71 @@
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" si="4"/>
-        <v>750</v>
-      </c>
-      <c r="D21" s="20">
+        <v>1050</v>
+      </c>
+      <c r="D21" s="19">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="E21" s="20">
+        <v>125</v>
+      </c>
+      <c r="E21" s="19">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
         <f t="shared" si="4"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="H21" s="20">
+      <c r="G21" s="19">
         <f t="shared" si="4"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="I21" s="20">
+      <c r="H21" s="19">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="J21" s="20">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="I21" s="19">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="L21" s="20">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="K21" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="L21" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="19">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="P21" s="20">
+        <v>0</v>
+      </c>
+      <c r="P21" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2231,11 +2413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2243,75 +2428,105 @@
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="11.625" customWidth="1"/>
+    <col min="5" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="23" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="T2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2365,71 +2580,113 @@
       <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="T3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="T4" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" s="57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
         <v>100001</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2439,43 +2696,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="11">
-        <v>5</v>
+        <f>ROUNDUP(pc_stat_data!V5,3)</f>
+        <v>4.5550000000000006</v>
       </c>
       <c r="E5" s="11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11">
-        <v>0.5</v>
+        <f>pc_stat_data!U5</f>
+        <v>1.0059999999999998</v>
       </c>
       <c r="G5" s="11">
+        <f t="shared" ref="G5:G10" si="0">H5*0.5</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5" s="11">
         <v>0.01</v>
       </c>
       <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>0.01</v>
       </c>
-      <c r="J5" s="11">
-        <v>0.1</v>
-      </c>
       <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
         <v>0.01</v>
       </c>
-      <c r="L5" s="11">
-        <v>0.1</v>
-      </c>
       <c r="M5" s="11">
         <v>0</v>
       </c>
       <c r="N5" s="11">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="11">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="11">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="Q5" s="11">
         <v>0</v>
@@ -2483,12 +2743,36 @@
       <c r="R5" s="11">
         <v>0</v>
       </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="S5" s="43">
+        <v>0</v>
+      </c>
+      <c r="T5" s="53">
+        <f>pc_stat_data!P5*0.7</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="U5" s="53">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V5)*0.1 - T5)*Z$5)  -  ((pc_stat_data!I5+pc_stat_data!J5-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K5+pc_stat_data!L5-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>1.0059999999999998</v>
+      </c>
+      <c r="V5" s="53">
+        <f>('!시뮬레이터'!C$5 - (W5/2 *Y$5) - (pc_stat_data!G5+pc_stat_data!H5 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M5-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N5-'!시뮬레이터'!M$5)*0.9901)) *X5</f>
+        <v>4.5540544699999996</v>
+      </c>
+      <c r="W5" s="54">
+        <v>6</v>
+      </c>
+      <c r="X5" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="Y5" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>100001</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2498,56 +2782,77 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>5.5</v>
+        <f>ROUNDUP(pc_stat_data!V6,3)</f>
+        <v>4.907</v>
       </c>
       <c r="E6" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>0.55000000000000004</v>
+        <f>pc_stat_data!U6</f>
+        <v>1.0419999999999998</v>
       </c>
       <c r="G6" s="7">
-        <v>5.4999999999999997E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H6" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <v>0.15</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O6" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0.25</v>
-      </c>
       <c r="Q6" s="7">
         <v>0</v>
       </c>
       <c r="R6" s="7">
         <v>0</v>
       </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="S6" s="44">
+        <v>0</v>
+      </c>
+      <c r="T6" s="48">
+        <f>pc_stat_data!P6*0.7</f>
+        <v>0.105</v>
+      </c>
+      <c r="U6" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V6)*0.1 - T6)*Z$5)  -  ((pc_stat_data!I6+pc_stat_data!J6-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K6+pc_stat_data!L6-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>1.0419999999999998</v>
+      </c>
+      <c r="V6" s="48">
+        <f>('!시뮬레이터'!C$6 - (W6/2 *Y$5) - (pc_stat_data!G6+pc_stat_data!H6 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M6-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N6-'!시뮬레이터'!M$6)*0.9901)) *X6</f>
+        <v>4.9064282399999994</v>
+      </c>
+      <c r="W6" s="48">
+        <v>6</v>
+      </c>
+      <c r="X6" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
         <v>100001</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2557,43 +2862,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>6</v>
+        <f>ROUNDUP(pc_stat_data!V7,3)</f>
+        <v>5.2590000000000003</v>
       </c>
       <c r="E7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <f>pc_stat_data!U7</f>
+        <v>1.081</v>
       </c>
       <c r="G7" s="7">
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.01</v>
       </c>
       <c r="H7" s="7">
         <v>0.02</v>
       </c>
       <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>0.02</v>
       </c>
-      <c r="J7" s="7">
-        <v>0.2</v>
-      </c>
       <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
         <v>0.03</v>
       </c>
-      <c r="L7" s="7">
-        <v>0.3</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O7" s="7">
-        <v>3.0000000000000001E-3</v>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>0.3</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -2601,12 +2909,30 @@
       <c r="R7" s="7">
         <v>0</v>
       </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="S7" s="44">
+        <v>0</v>
+      </c>
+      <c r="T7" s="48">
+        <f>pc_stat_data!P7*0.7</f>
+        <v>0.12249999999999998</v>
+      </c>
+      <c r="U7" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V7)*0.1 - T7)*Z$5)  -  ((pc_stat_data!I7+pc_stat_data!J7-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K7+pc_stat_data!L7-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.081</v>
+      </c>
+      <c r="V7" s="48">
+        <f>('!시뮬레이터'!C$7 - (W7/2 *Y$5) - (pc_stat_data!G7+pc_stat_data!H7 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M7-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N7-'!시뮬레이터'!M$7)*0.9901)) *X7</f>
+        <v>5.2588020100000001</v>
+      </c>
+      <c r="W7" s="48">
+        <v>6</v>
+      </c>
+      <c r="X7" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>100001</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2616,43 +2942,46 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>6.5</v>
+        <f>ROUNDUP(pc_stat_data!V8,3)</f>
+        <v>5.6120000000000001</v>
       </c>
       <c r="E8" s="7">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.65</v>
+        <f>pc_stat_data!U8</f>
+        <v>1.1179999999999999</v>
       </c>
       <c r="G8" s="7">
-        <v>6.4999999999999997E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H8" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="7">
-        <v>0.25</v>
-      </c>
       <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
         <v>0.04</v>
       </c>
-      <c r="L8" s="7">
-        <v>0.4</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O8" s="7">
-        <v>4.0000000000000001E-3</v>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -2660,12 +2989,30 @@
       <c r="R8" s="7">
         <v>0</v>
       </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="S8" s="44">
+        <v>0</v>
+      </c>
+      <c r="T8" s="48">
+        <f>pc_stat_data!P8*0.7</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="U8" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V8)*0.1 - T8)*Z$5)  -  ((pc_stat_data!I8+pc_stat_data!J8-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K8+pc_stat_data!L8-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="V8" s="48">
+        <f>('!시뮬레이터'!C$8 - (W8/2 *Y$5) - (pc_stat_data!G8+pc_stat_data!H8 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M8-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N8-'!시뮬레이터'!M$8)*0.9901)) *X8</f>
+        <v>5.6111757799999999</v>
+      </c>
+      <c r="W8" s="48">
+        <v>6</v>
+      </c>
+      <c r="X8" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>100001</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2675,43 +3022,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>7</v>
+        <f>ROUNDUP(pc_stat_data!V9,3)</f>
+        <v>5.9640000000000004</v>
       </c>
       <c r="E9" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>pc_stat_data!U9</f>
+        <v>1.1559999999999999</v>
       </c>
       <c r="G9" s="7">
-        <v>7.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9" s="7">
         <v>0.03</v>
       </c>
       <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>0.03</v>
       </c>
-      <c r="J9" s="7">
-        <v>0.3</v>
-      </c>
       <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
         <v>0.05</v>
       </c>
-      <c r="L9" s="7">
-        <v>0.5</v>
-      </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O9" s="7">
-        <v>5.0000000000000001E-3</v>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>0.4</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -2719,12 +3069,30 @@
       <c r="R9" s="7">
         <v>0</v>
       </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="S9" s="44">
+        <v>0</v>
+      </c>
+      <c r="T9" s="48">
+        <f>pc_stat_data!P9*0.7</f>
+        <v>0.1575</v>
+      </c>
+      <c r="U9" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V9)*0.1 - T9)*Z$5)  -  ((pc_stat_data!I9+pc_stat_data!J9-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K9+pc_stat_data!L9-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="V9" s="48">
+        <f>('!시뮬레이터'!C$9 - (W9/2 *Y$5) - (pc_stat_data!G9+pc_stat_data!H9 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M9-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N9-'!시뮬레이터'!M$9)*0.9901)) *X9</f>
+        <v>5.9635495499999989</v>
+      </c>
+      <c r="W9" s="48">
+        <v>6</v>
+      </c>
+      <c r="X9" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38">
         <v>100001</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2734,43 +3102,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="16">
-        <v>7.5</v>
+        <f>ROUNDUP(pc_stat_data!V10,3)</f>
+        <v>6.3160000000000007</v>
       </c>
       <c r="E10" s="16">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>0.75</v>
+        <f>pc_stat_data!U10</f>
+        <v>1.1929999999999998</v>
       </c>
       <c r="G10" s="16">
-        <v>7.4999999999999997E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="H10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J10" s="16">
-        <v>0.35</v>
-      </c>
       <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
         <v>0.06</v>
       </c>
-      <c r="L10" s="16">
-        <v>0.6</v>
-      </c>
       <c r="M10" s="16">
         <v>0</v>
       </c>
       <c r="N10" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O10" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="16">
         <v>0</v>
@@ -2778,71 +3149,109 @@
       <c r="R10" s="16">
         <v>0</v>
       </c>
-      <c r="S10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="S10" s="45">
+        <v>0</v>
+      </c>
+      <c r="T10" s="48">
+        <f>pc_stat_data!P10*0.7</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="U10" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V10)*0.1 - T10)*Z$5)  -  ((pc_stat_data!I10+pc_stat_data!J10-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K10+pc_stat_data!L10-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.1929999999999998</v>
+      </c>
+      <c r="V10" s="48">
+        <f>('!시뮬레이터'!C$10 - (W10/2 *Y$5) - (pc_stat_data!G10+pc_stat_data!H10 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M10-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N10-'!시뮬레이터'!M$10)*0.9901)) *X10</f>
+        <v>6.3159233200000005</v>
+      </c>
+      <c r="W10" s="48">
+        <v>6</v>
+      </c>
+      <c r="X10" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
         <v>100002</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="42">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
-        <v>5.5</v>
+      <c r="D11" s="42">
+        <f>ROUNDUP(pc_stat_data!V11,3)</f>
+        <v>4.6050000000000004</v>
       </c>
       <c r="E11" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="13">
+        <f>ROUNDUP(pc_stat_data!U11,3)</f>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H11" s="23">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I11" s="23">
         <v>0.01</v>
       </c>
-      <c r="H11" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
         <v>0.01</v>
       </c>
-      <c r="K11" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <v>0</v>
+      </c>
+      <c r="N11" s="42">
+        <v>0</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0</v>
+      </c>
+      <c r="P11" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0</v>
+      </c>
+      <c r="R11" s="42">
+        <v>0</v>
+      </c>
+      <c r="S11" s="46">
+        <v>0</v>
+      </c>
+      <c r="T11" s="48">
+        <f>pc_stat_data!P11*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V11)*0.1 - T11)*Z$5)  -  ((pc_stat_data!I11+pc_stat_data!J11-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K11+pc_stat_data!L11-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>1.0719999999999998</v>
+      </c>
+      <c r="V11" s="48">
+        <f>('!시뮬레이터'!C$5 - (W11/2 *Y$5) - (pc_stat_data!G11+pc_stat_data!H11 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M11-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N11-'!시뮬레이터'!M$5)*0.9901)) *X11</f>
+        <v>4.6046336800000001</v>
+      </c>
+      <c r="W11" s="49">
+        <v>9</v>
+      </c>
+      <c r="X11" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>100002</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2852,40 +3261,42 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>6</v>
+        <f>ROUNDUP(pc_stat_data!V12,3)</f>
+        <v>5.008</v>
       </c>
       <c r="E12" s="7">
-        <v>0.65</v>
+        <f>ROUNDUP(pc_stat_data!U12,3)</f>
+        <v>1.119</v>
       </c>
       <c r="F12" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.125E-2</v>
       </c>
       <c r="H12" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.125E-2</v>
       </c>
       <c r="I12" s="7">
-        <v>0.17</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K12" s="7">
-        <v>0.2</v>
-      </c>
       <c r="L12" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="7">
         <v>0</v>
@@ -2896,12 +3307,30 @@
       <c r="R12" s="7">
         <v>0</v>
       </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="S12" s="44">
+        <v>0</v>
+      </c>
+      <c r="T12" s="48">
+        <f>pc_stat_data!P12*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V12)*0.1 - T12)*Z$5)  -  ((pc_stat_data!I12+pc_stat_data!J12-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K12+pc_stat_data!L12-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>1.119</v>
+      </c>
+      <c r="V12" s="48">
+        <f>('!시뮬레이터'!C$6 - (W12/2 *Y$5) - (pc_stat_data!G12+pc_stat_data!H12 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M12-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N12-'!시뮬레이터'!M$6)*0.9901)) *X12</f>
+        <v>5.0073465600000002</v>
+      </c>
+      <c r="W12" s="48">
+        <v>9</v>
+      </c>
+      <c r="X12" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <v>100002</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2911,40 +3340,42 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6.5</v>
+        <f>ROUNDUP(pc_stat_data!V13,3)</f>
+        <v>5.4110000000000005</v>
       </c>
       <c r="E13" s="7">
-        <v>0.7</v>
+        <f>ROUNDUP(pc_stat_data!U13,3)</f>
+        <v>1.1679999999999999</v>
       </c>
       <c r="F13" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I13" s="7">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
         <v>0.02</v>
       </c>
-      <c r="K13" s="7">
-        <v>0.3</v>
-      </c>
       <c r="L13" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -2955,12 +3386,30 @@
       <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="S13" s="44">
+        <v>0</v>
+      </c>
+      <c r="T13" s="48">
+        <f>pc_stat_data!P13*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V13)*0.1 - T13)*Z$5)  -  ((pc_stat_data!I13+pc_stat_data!J13-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K13+pc_stat_data!L13-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="V13" s="48">
+        <f>('!시뮬레이터'!C$7 - (W13/2 *Y$5) - (pc_stat_data!G13+pc_stat_data!H13 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M13-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N13-'!시뮬레이터'!M$7)*0.9901)) *X13</f>
+        <v>5.4100594400000013</v>
+      </c>
+      <c r="W13" s="48">
+        <v>9</v>
+      </c>
+      <c r="X13" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>100002</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2970,40 +3419,42 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>7</v>
+        <f>ROUNDUP(pc_stat_data!V14,3)</f>
+        <v>5.8130000000000006</v>
       </c>
       <c r="E14" s="7">
-        <v>0.75</v>
+        <f>ROUNDUP(pc_stat_data!U14,3)</f>
+        <v>1.2150000000000001</v>
       </c>
       <c r="F14" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7">
-        <v>6.4999999999999997E-3</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>6.4999999999999997E-3</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="I14" s="7">
-        <v>0.27</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K14" s="7">
-        <v>0.4</v>
-      </c>
       <c r="L14" s="7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -3014,12 +3465,30 @@
       <c r="R14" s="7">
         <v>0</v>
       </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="S14" s="44">
+        <v>0</v>
+      </c>
+      <c r="T14" s="48">
+        <f>pc_stat_data!P14*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V14)*0.1 - T14)*Z$5)  -  ((pc_stat_data!I14+pc_stat_data!J14-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K14+pc_stat_data!L14-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.2149999999999999</v>
+      </c>
+      <c r="V14" s="48">
+        <f>('!시뮬레이터'!C$8 - (W14/2 *Y$5) - (pc_stat_data!G14+pc_stat_data!H14 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M14-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N14-'!시뮬레이터'!M$8)*0.9901)) *X14</f>
+        <v>5.8127723200000005</v>
+      </c>
+      <c r="W14" s="48">
+        <v>9</v>
+      </c>
+      <c r="X14" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>100002</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3029,56 +3498,76 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>7.5</v>
+        <f>ROUNDUP(pc_stat_data!V15,3)</f>
+        <v>6.2160000000000002</v>
       </c>
       <c r="E15" s="7">
+        <f>ROUNDUP(pc_stat_data!U15,3)</f>
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="44">
+        <v>0</v>
+      </c>
+      <c r="T15" s="48">
+        <f>pc_stat_data!P15*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V15)*0.1 - T15)*Z$5)  -  ((pc_stat_data!I15+pc_stat_data!J15-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K15+pc_stat_data!L15-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="V15" s="48">
+        <f>('!시뮬레이터'!C$9 - (W15/2 *Y$5) - (pc_stat_data!G15+pc_stat_data!H15 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M15-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N15-'!시뮬레이터'!M$9)*0.9901)) *X15</f>
+        <v>6.2154851999999998</v>
+      </c>
+      <c r="W15" s="48">
+        <v>9</v>
+      </c>
+      <c r="X15" s="48">
         <v>0.8</v>
       </c>
-      <c r="F15" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O15" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+    </row>
+    <row r="16" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28">
         <v>100002</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -3088,40 +3577,42 @@
         <v>6</v>
       </c>
       <c r="D16" s="16">
-        <v>8</v>
+        <f>ROUNDUP(pc_stat_data!V16,3)</f>
+        <v>6.6190000000000007</v>
       </c>
       <c r="E16" s="16">
-        <v>0.85</v>
+        <f>ROUNDUP(pc_stat_data!U16,3)</f>
+        <v>1.3109999999999999</v>
       </c>
       <c r="F16" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="H16" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="I16" s="16">
-        <v>0.37</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K16" s="16">
-        <v>0.6</v>
-      </c>
       <c r="L16" s="16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M16" s="16">
         <v>0</v>
       </c>
       <c r="N16" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P16" s="16">
         <v>0</v>
@@ -3132,12 +3623,30 @@
       <c r="R16" s="16">
         <v>0</v>
       </c>
-      <c r="S16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="S16" s="45">
+        <v>0</v>
+      </c>
+      <c r="T16" s="48">
+        <f>pc_stat_data!P16*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V16)*0.1 - T16)*Z$5)  -  ((pc_stat_data!I16+pc_stat_data!J16-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K16+pc_stat_data!L16-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="V16" s="48">
+        <f>('!시뮬레이터'!C$10 - (W16/2 *Y$5) - (pc_stat_data!G16+pc_stat_data!H16 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M16-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N16-'!시뮬레이터'!M$10)*0.9901)) *X16</f>
+        <v>6.6181980800000009</v>
+      </c>
+      <c r="W16" s="48">
+        <v>9</v>
+      </c>
+      <c r="X16" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
         <v>100003</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -3147,40 +3656,42 @@
         <v>1</v>
       </c>
       <c r="D17" s="13">
-        <v>5.75</v>
+        <f>ROUNDUP(pc_stat_data!V17,3)</f>
+        <v>5.6050000000000004</v>
       </c>
       <c r="E17" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.1</v>
+        <f>ROUNDUP(pc_stat_data!U17,3)</f>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
       </c>
       <c r="G17" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
         <v>0.01</v>
       </c>
-      <c r="H17" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0.1</v>
-      </c>
       <c r="L17" s="11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13">
         <v>0</v>
       </c>
       <c r="N17" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="13">
         <v>0</v>
@@ -3191,12 +3702,30 @@
       <c r="R17" s="13">
         <v>0</v>
       </c>
-      <c r="S17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="48">
+        <f>pc_stat_data!P17*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V17)*0.1 - T17)*Z$5)  -  ((pc_stat_data!I17+pc_stat_data!J17-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K17+pc_stat_data!L17-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="V17" s="48">
+        <f>('!시뮬레이터'!C$5 - (W17/2 *Y$5) - (pc_stat_data!G17+pc_stat_data!H17 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M17-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N17-'!시뮬레이터'!M$5)*0.9901)) *X17</f>
+        <v>5.6046336800000001</v>
+      </c>
+      <c r="W17" s="48">
+        <v>4</v>
+      </c>
+      <c r="X17" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>100003</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3206,40 +3735,42 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>6.25</v>
+        <f>ROUNDUP(pc_stat_data!V18,3)</f>
+        <v>6.008</v>
       </c>
       <c r="E18" s="7">
-        <v>0.67</v>
+        <f>ROUNDUP(pc_stat_data!U18,3)</f>
+        <v>1.0369999999999999</v>
       </c>
       <c r="F18" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.125E-2</v>
       </c>
       <c r="H18" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.125E-2</v>
       </c>
       <c r="I18" s="7">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K18" s="7">
-        <v>0.2</v>
-      </c>
       <c r="L18" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="P18" s="7">
         <v>0</v>
@@ -3250,12 +3781,30 @@
       <c r="R18" s="7">
         <v>0</v>
       </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="S18" s="44">
+        <v>0</v>
+      </c>
+      <c r="T18" s="48">
+        <f>pc_stat_data!P18*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V18)*0.1 - T18)*Z$5)  -  ((pc_stat_data!I18+pc_stat_data!J18-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K18+pc_stat_data!L18-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="V18" s="48">
+        <f>('!시뮬레이터'!C$6 - (W18/2 *Y$5) - (pc_stat_data!G18+pc_stat_data!H18 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M18-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N18-'!시뮬레이터'!M$6)*0.9901)) *X18</f>
+        <v>6.0073465600000002</v>
+      </c>
+      <c r="W18" s="48">
+        <v>4</v>
+      </c>
+      <c r="X18" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>100003</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3265,40 +3814,42 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>6.75</v>
+        <f>ROUNDUP(pc_stat_data!V19,3)</f>
+        <v>6.4110000000000005</v>
       </c>
       <c r="E19" s="7">
-        <v>0.72</v>
+        <f>ROUNDUP(pc_stat_data!U19,3)</f>
+        <v>1.085</v>
       </c>
       <c r="F19" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H19" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I19" s="7">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
         <v>0.02</v>
       </c>
-      <c r="K19" s="7">
-        <v>0.3</v>
-      </c>
       <c r="L19" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P19" s="7">
         <v>0</v>
@@ -3309,12 +3860,30 @@
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="S19" s="44">
+        <v>0</v>
+      </c>
+      <c r="T19" s="48">
+        <f>pc_stat_data!P19*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V19)*0.1 - T19)*Z$5)  -  ((pc_stat_data!I19+pc_stat_data!J19-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K19+pc_stat_data!L19-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.085</v>
+      </c>
+      <c r="V19" s="48">
+        <f>('!시뮬레이터'!C$7 - (W19/2 *Y$5) - (pc_stat_data!G19+pc_stat_data!H19 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M19-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N19-'!시뮬레이터'!M$7)*0.9901)) *X19</f>
+        <v>6.4100594399999995</v>
+      </c>
+      <c r="W19" s="48">
+        <v>4</v>
+      </c>
+      <c r="X19" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>100003</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3324,40 +3893,42 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>7.25</v>
+        <f>ROUNDUP(pc_stat_data!V20,3)</f>
+        <v>6.8130000000000006</v>
       </c>
       <c r="E20" s="7">
-        <v>0.77</v>
+        <f>ROUNDUP(pc_stat_data!U20,3)</f>
+        <v>1.131</v>
       </c>
       <c r="F20" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>6.4999999999999997E-3</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="H20" s="7">
-        <v>6.4999999999999997E-3</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K20" s="7">
-        <v>0.4</v>
-      </c>
       <c r="L20" s="7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P20" s="7">
         <v>0</v>
@@ -3368,12 +3939,30 @@
       <c r="R20" s="7">
         <v>0</v>
       </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="S20" s="44">
+        <v>0</v>
+      </c>
+      <c r="T20" s="48">
+        <f>pc_stat_data!P20*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V20)*0.1 - T20)*Z$5)  -  ((pc_stat_data!I20+pc_stat_data!J20-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K20+pc_stat_data!L20-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.1309999999999998</v>
+      </c>
+      <c r="V20" s="48">
+        <f>('!시뮬레이터'!C$8 - (W20/2 *Y$5) - (pc_stat_data!G20+pc_stat_data!H20 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M20-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N20-'!시뮬레이터'!M$8)*0.9901)) *X20</f>
+        <v>6.8127723200000005</v>
+      </c>
+      <c r="W20" s="48">
+        <v>4</v>
+      </c>
+      <c r="X20" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>100003</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3383,40 +3972,42 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>7.75</v>
+        <f>ROUNDUP(pc_stat_data!V21,3)</f>
+        <v>7.2160000000000002</v>
       </c>
       <c r="E21" s="7">
-        <v>0.82</v>
+        <f>ROUNDUP(pc_stat_data!U21,3)</f>
+        <v>1.1779999999999999</v>
       </c>
       <c r="F21" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="H21" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
         <v>0.03</v>
       </c>
-      <c r="K21" s="7">
-        <v>0.5</v>
-      </c>
       <c r="L21" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="7">
         <v>0</v>
@@ -3427,12 +4018,30 @@
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+      <c r="S21" s="44">
+        <v>0</v>
+      </c>
+      <c r="T21" s="48">
+        <f>pc_stat_data!P21*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V21)*0.1 - T21)*Z$5)  -  ((pc_stat_data!I21+pc_stat_data!J21-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K21+pc_stat_data!L21-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="V21" s="48">
+        <f>('!시뮬레이터'!C$9 - (W21/2 *Y$5) - (pc_stat_data!G21+pc_stat_data!H21 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M21-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N21-'!시뮬레이터'!M$9)*0.9901)) *X21</f>
+        <v>7.2154851999999998</v>
+      </c>
+      <c r="W21" s="48">
+        <v>4</v>
+      </c>
+      <c r="X21" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28">
         <v>100003</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -3442,40 +4051,42 @@
         <v>6</v>
       </c>
       <c r="D22" s="16">
-        <v>8.25</v>
+        <f>ROUNDUP(pc_stat_data!V22,3)</f>
+        <v>7.6190000000000007</v>
       </c>
       <c r="E22" s="16">
-        <v>0.87</v>
+        <f>ROUNDUP(pc_stat_data!U22,3)</f>
+        <v>1.2250000000000001</v>
       </c>
       <c r="F22" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G22" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="H22" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="I22" s="16">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K22" s="16">
-        <v>0.6</v>
-      </c>
       <c r="L22" s="16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="16">
         <v>0</v>
@@ -3486,12 +4097,30 @@
       <c r="R22" s="16">
         <v>0</v>
       </c>
-      <c r="S22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="S22" s="45">
+        <v>0</v>
+      </c>
+      <c r="T22" s="48">
+        <f>pc_stat_data!P22*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V22)*0.1 - T22)*Z$5)  -  ((pc_stat_data!I22+pc_stat_data!J22-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K22+pc_stat_data!L22-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="V22" s="48">
+        <f>('!시뮬레이터'!C$10 - (W22/2 *Y$5) - (pc_stat_data!G22+pc_stat_data!H22 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M22-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N22-'!시뮬레이터'!M$10)*0.9901)) *X22</f>
+        <v>7.6181980800000009</v>
+      </c>
+      <c r="W22" s="48">
+        <v>4</v>
+      </c>
+      <c r="X22" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
         <v>100004</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3501,40 +4130,42 @@
         <v>1</v>
       </c>
       <c r="D23" s="13">
-        <v>5.75</v>
+        <f>ROUNDUP(pc_stat_data!V23,3)</f>
+        <v>5.4050000000000002</v>
       </c>
       <c r="E23" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.1</v>
+        <f>ROUNDUP(pc_stat_data!U23,3)</f>
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
       </c>
       <c r="G23" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H23" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I23" s="23">
         <v>0.01</v>
       </c>
-      <c r="H23" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.1</v>
-      </c>
       <c r="J23" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K23" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0.01</v>
+        <v>0.02</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
       </c>
       <c r="M23" s="13">
         <v>0</v>
       </c>
       <c r="N23" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="O23" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="P23" s="13">
         <v>0</v>
@@ -3545,12 +4176,30 @@
       <c r="R23" s="13">
         <v>0</v>
       </c>
-      <c r="S23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="S23" s="47">
+        <v>0</v>
+      </c>
+      <c r="T23" s="48">
+        <f>pc_stat_data!P23*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V23)*0.1 - T23)*Z$5)  -  ((pc_stat_data!I23+pc_stat_data!J23-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K23+pc_stat_data!L23-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="V23" s="48">
+        <f>('!시뮬레이터'!C$5 - (W23/2 *Y$5) - (pc_stat_data!G23+pc_stat_data!H23 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M23-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N23-'!시뮬레이터'!M$5)*0.9901)) *X23</f>
+        <v>5.4046336799999999</v>
+      </c>
+      <c r="W23" s="48">
+        <v>5</v>
+      </c>
+      <c r="X23" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
         <v>100004</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3560,40 +4209,42 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>6.25</v>
+        <f>ROUNDUP(pc_stat_data!V24,3)</f>
+        <v>5.8080000000000007</v>
       </c>
       <c r="E24" s="7">
-        <v>0.67</v>
+        <f>ROUNDUP(pc_stat_data!U24,3)</f>
+        <v>1.0529999999999999</v>
       </c>
       <c r="F24" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.125E-2</v>
       </c>
       <c r="H24" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>1.125E-2</v>
       </c>
       <c r="I24" s="7">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J24" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="7">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L24" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="7">
         <v>0</v>
@@ -3604,12 +4255,30 @@
       <c r="R24" s="7">
         <v>0</v>
       </c>
-      <c r="S24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="S24" s="44">
+        <v>0</v>
+      </c>
+      <c r="T24" s="48">
+        <f>pc_stat_data!P24*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V24)*0.1 - T24)*Z$5)  -  ((pc_stat_data!I24+pc_stat_data!J24-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K24+pc_stat_data!L24-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="V24" s="48">
+        <f>('!시뮬레이터'!C$6 - (W24/2 *Y$5) - (pc_stat_data!G24+pc_stat_data!H24 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M24-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N24-'!시뮬레이터'!M$6)*0.9901)) *X24</f>
+        <v>5.80734656</v>
+      </c>
+      <c r="W24" s="48">
+        <v>5</v>
+      </c>
+      <c r="X24" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
         <v>100004</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3619,40 +4288,42 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>6.75</v>
+        <f>ROUNDUP(pc_stat_data!V25,3)</f>
+        <v>6.2110000000000003</v>
       </c>
       <c r="E25" s="7">
-        <v>0.72</v>
+        <f>ROUNDUP(pc_stat_data!U25,3)</f>
+        <v>1.101</v>
       </c>
       <c r="F25" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H25" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I25" s="7">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="J25" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="L25" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P25" s="7">
         <v>0</v>
@@ -3663,12 +4334,30 @@
       <c r="R25" s="7">
         <v>0</v>
       </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="S25" s="44">
+        <v>0</v>
+      </c>
+      <c r="T25" s="48">
+        <f>pc_stat_data!P25*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V25)*0.1 - T25)*Z$5)  -  ((pc_stat_data!I25+pc_stat_data!J25-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K25+pc_stat_data!L25-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.101</v>
+      </c>
+      <c r="V25" s="48">
+        <f>('!시뮬레이터'!C$7 - (W25/2 *Y$5) - (pc_stat_data!G25+pc_stat_data!H25 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M25-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N25-'!시뮬레이터'!M$7)*0.9901)) *X25</f>
+        <v>6.2100594400000011</v>
+      </c>
+      <c r="W25" s="48">
+        <v>5</v>
+      </c>
+      <c r="X25" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
         <v>100004</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3678,40 +4367,42 @@
         <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>7.25</v>
+        <f>ROUNDUP(pc_stat_data!V26,3)</f>
+        <v>6.6130000000000004</v>
       </c>
       <c r="E26" s="7">
-        <v>0.77</v>
+        <f>ROUNDUP(pc_stat_data!U26,3)</f>
+        <v>1.147</v>
       </c>
       <c r="F26" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G26" s="7">
-        <v>6.4999999999999997E-3</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="H26" s="7">
-        <v>6.4999999999999997E-3</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="I26" s="7">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J26" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="7">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="L26" s="7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P26" s="7">
         <v>0</v>
@@ -3722,12 +4413,30 @@
       <c r="R26" s="7">
         <v>0</v>
       </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="S26" s="44">
+        <v>0</v>
+      </c>
+      <c r="T26" s="48">
+        <f>pc_stat_data!P26*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V26)*0.1 - T26)*Z$5)  -  ((pc_stat_data!I26+pc_stat_data!J26-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K26+pc_stat_data!L26-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.1469999999999998</v>
+      </c>
+      <c r="V26" s="48">
+        <f>('!시뮬레이터'!C$8 - (W26/2 *Y$5) - (pc_stat_data!G26+pc_stat_data!H26 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M26-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N26-'!시뮬레이터'!M$8)*0.9901)) *X26</f>
+        <v>6.6127723200000013</v>
+      </c>
+      <c r="W26" s="48">
+        <v>5</v>
+      </c>
+      <c r="X26" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
         <v>100004</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3737,40 +4446,42 @@
         <v>5</v>
       </c>
       <c r="D27" s="7">
-        <v>7.75</v>
+        <f>ROUNDUP(pc_stat_data!V27,3)</f>
+        <v>7.016</v>
       </c>
       <c r="E27" s="7">
-        <v>0.82</v>
+        <f>ROUNDUP(pc_stat_data!U27,3)</f>
+        <v>1.194</v>
       </c>
       <c r="F27" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="H27" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="I27" s="7">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="J27" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K27" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P27" s="7">
         <v>0</v>
@@ -3781,12 +4492,30 @@
       <c r="R27" s="7">
         <v>0</v>
       </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
+      <c r="S27" s="44">
+        <v>0</v>
+      </c>
+      <c r="T27" s="48">
+        <f>pc_stat_data!P27*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V27)*0.1 - T27)*Z$5)  -  ((pc_stat_data!I27+pc_stat_data!J27-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K27+pc_stat_data!L27-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.194</v>
+      </c>
+      <c r="V27" s="48">
+        <f>('!시뮬레이터'!C$9 - (W27/2 *Y$5) - (pc_stat_data!G27+pc_stat_data!H27 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M27-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N27-'!시뮬레이터'!M$9)*0.9901)) *X27</f>
+        <v>7.0154851999999996</v>
+      </c>
+      <c r="W27" s="48">
+        <v>5</v>
+      </c>
+      <c r="X27" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
         <v>100004</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -3796,40 +4525,42 @@
         <v>6</v>
       </c>
       <c r="D28" s="16">
-        <v>8.25</v>
+        <f>ROUNDUP(pc_stat_data!V28,3)</f>
+        <v>7.4190000000000005</v>
       </c>
       <c r="E28" s="16">
-        <v>0.87</v>
+        <f>ROUNDUP(pc_stat_data!U28,3)</f>
+        <v>1.2410000000000001</v>
       </c>
       <c r="F28" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G28" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="H28" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>2.6250000000000002E-2</v>
       </c>
       <c r="I28" s="16">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J28" s="16">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="16">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="L28" s="16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M28" s="16">
         <v>0</v>
       </c>
       <c r="N28" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P28" s="16">
         <v>0</v>
@@ -3840,12 +4571,30 @@
       <c r="R28" s="16">
         <v>0</v>
       </c>
-      <c r="S28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="S28" s="45">
+        <v>0</v>
+      </c>
+      <c r="T28" s="48">
+        <f>pc_stat_data!P28*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V28)*0.1 - T28)*Z$5)  -  ((pc_stat_data!I28+pc_stat_data!J28-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K28+pc_stat_data!L28-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.2409999999999999</v>
+      </c>
+      <c r="V28" s="48">
+        <f>('!시뮬레이터'!C$10 - (W28/2 *Y$5) - (pc_stat_data!G28+pc_stat_data!H28 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M28-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N28-'!시뮬레이터'!M$10)*0.9901)) *X28</f>
+        <v>7.4181980800000007</v>
+      </c>
+      <c r="W28" s="48">
+        <v>5</v>
+      </c>
+      <c r="X28" s="48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="39">
         <v>100005</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -3855,43 +4604,45 @@
         <v>1</v>
       </c>
       <c r="D29" s="13">
-        <v>6</v>
+        <f>ROUNDUP(pc_stat_data!V29,3)</f>
+        <v>7.0030000000000001</v>
       </c>
       <c r="E29" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0.03</v>
+        <f>ROUNDUP(pc_stat_data!U29,3)</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H29" s="11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I29" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
       </c>
       <c r="M29" s="13">
         <v>0</v>
       </c>
       <c r="N29" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="P29" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0.15</v>
       </c>
       <c r="Q29" s="13">
         <v>0</v>
@@ -3899,12 +4650,30 @@
       <c r="R29" s="13">
         <v>0</v>
       </c>
-      <c r="S29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="S29" s="47">
+        <v>0</v>
+      </c>
+      <c r="T29" s="48">
+        <f>pc_stat_data!P29*0.7</f>
+        <v>0.105</v>
+      </c>
+      <c r="U29" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V29)*0.1 - T29)*Z$5)  -  ((pc_stat_data!I29+pc_stat_data!J29-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K29+pc_stat_data!L29-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="V29" s="48">
+        <f>('!시뮬레이터'!C$5 - (W29/2 *Y$5) - (pc_stat_data!G29+pc_stat_data!H29 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M29-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N29-'!시뮬레이터'!M$5)*0.9901)) *X29</f>
+        <v>7.0022524949999996</v>
+      </c>
+      <c r="W29" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="X29" s="48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
         <v>100005</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3914,43 +4683,45 @@
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>6.7</v>
+        <f>ROUNDUP(pc_stat_data!V30,3)</f>
+        <v>7.4790000000000001</v>
       </c>
       <c r="E30" s="7">
-        <v>0.55000000000000004</v>
+        <f>ROUNDUP(pc_stat_data!U30,3)</f>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F30" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H30" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I30" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="7">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L30" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="7">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q30" s="7">
         <v>0</v>
@@ -3958,12 +4729,30 @@
       <c r="R30" s="7">
         <v>0</v>
       </c>
-      <c r="S30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="S30" s="44">
+        <v>0</v>
+      </c>
+      <c r="T30" s="48">
+        <f>pc_stat_data!P30*0.7</f>
+        <v>0.11549999999999999</v>
+      </c>
+      <c r="U30" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V30)*0.1 - T30)*Z$5)  -  ((pc_stat_data!I30+pc_stat_data!J30-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K30+pc_stat_data!L30-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="V30" s="48">
+        <f>('!시뮬레이터'!C$6 - (W30/2 *Y$5) - (pc_stat_data!G30+pc_stat_data!H30 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M30-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N30-'!시뮬레이터'!M$6)*0.9901)) *X30</f>
+        <v>7.47809904</v>
+      </c>
+      <c r="W30" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="X30" s="48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
         <v>100005</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3973,43 +4762,45 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>7.4</v>
+        <f>ROUNDUP(pc_stat_data!V31,3)</f>
+        <v>7.9540000000000006</v>
       </c>
       <c r="E31" s="7">
-        <v>0.6</v>
+        <f>ROUNDUP(pc_stat_data!U31,3)</f>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F31" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="7">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H31" s="7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I31" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K31" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L31" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q31" s="7">
         <v>0</v>
@@ -4017,12 +4808,30 @@
       <c r="R31" s="7">
         <v>0</v>
       </c>
-      <c r="S31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="S31" s="44">
+        <v>0</v>
+      </c>
+      <c r="T31" s="48">
+        <f>pc_stat_data!P31*0.7</f>
+        <v>0.126</v>
+      </c>
+      <c r="U31" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V31)*0.1 - T31)*Z$5)  -  ((pc_stat_data!I31+pc_stat_data!J31-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K31+pc_stat_data!L31-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="V31" s="48">
+        <f>('!시뮬레이터'!C$7 - (W31/2 *Y$5) - (pc_stat_data!G31+pc_stat_data!H31 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M31-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N31-'!시뮬레이터'!M$7)*0.9901)) *X31</f>
+        <v>7.9539455849999996</v>
+      </c>
+      <c r="W31" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="X31" s="48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
         <v>100005</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4032,43 +4841,45 @@
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>8.1</v>
+        <f>ROUNDUP(pc_stat_data!V32,3)</f>
+        <v>8.43</v>
       </c>
       <c r="E32" s="7">
-        <v>0.65</v>
+        <f>ROUNDUP(pc_stat_data!U32,3)</f>
+        <v>0.90100000000000002</v>
       </c>
       <c r="F32" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G32" s="7">
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H32" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I32" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="7">
-        <v>0</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="Q32" s="7">
         <v>0</v>
@@ -4076,12 +4887,30 @@
       <c r="R32" s="7">
         <v>0</v>
       </c>
-      <c r="S32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="S32" s="44">
+        <v>0</v>
+      </c>
+      <c r="T32" s="48">
+        <f>pc_stat_data!P32*0.7</f>
+        <v>0.13649999999999998</v>
+      </c>
+      <c r="U32" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V32)*0.1 - T32)*Z$5)  -  ((pc_stat_data!I32+pc_stat_data!J32-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K32+pc_stat_data!L32-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="V32" s="48">
+        <f>('!시뮬레이터'!C$8 - (W32/2 *Y$5) - (pc_stat_data!G32+pc_stat_data!H32 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M32-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N32-'!시뮬레이터'!M$8)*0.9901)) *X32</f>
+        <v>8.4297921300000009</v>
+      </c>
+      <c r="W32" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="X32" s="48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
         <v>100005</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -4091,43 +4920,45 @@
         <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>8.8000000000000007</v>
+        <f>ROUNDUP(pc_stat_data!V33,3)</f>
+        <v>8.9059999999999988</v>
       </c>
       <c r="E33" s="7">
-        <v>0.7</v>
+        <f>ROUNDUP(pc_stat_data!U33,3)</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F33" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="7">
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H33" s="7">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I33" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L33" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P33" s="7">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Q33" s="7">
         <v>0</v>
@@ -4135,12 +4966,30 @@
       <c r="R33" s="7">
         <v>0</v>
       </c>
-      <c r="S33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
+      <c r="S33" s="44">
+        <v>0</v>
+      </c>
+      <c r="T33" s="48">
+        <f>pc_stat_data!P33*0.7</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U33" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V33)*0.1 - T33)*Z$5)  -  ((pc_stat_data!I33+pc_stat_data!J33-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K33+pc_stat_data!L33-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="V33" s="48">
+        <f>('!시뮬레이터'!C$9 - (W33/2 *Y$5) - (pc_stat_data!G33+pc_stat_data!H33 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M33-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N33-'!시뮬레이터'!M$9)*0.9901)) *X33</f>
+        <v>8.9056386749999987</v>
+      </c>
+      <c r="W33" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="X33" s="48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
         <v>100005</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -4150,43 +4999,45 @@
         <v>6</v>
       </c>
       <c r="D34" s="16">
-        <v>9.5</v>
+        <f>ROUNDUP(pc_stat_data!V34,3)</f>
+        <v>9.3819999999999997</v>
       </c>
       <c r="E34" s="16">
-        <v>0.75</v>
+        <f>ROUNDUP(pc_stat_data!U34,3)</f>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F34" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H34" s="16">
-        <v>4.4999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I34" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J34" s="16">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M34" s="16">
         <v>0</v>
       </c>
       <c r="N34" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O34" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P34" s="16">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="Q34" s="16">
         <v>0</v>
@@ -4194,12 +5045,30 @@
       <c r="R34" s="16">
         <v>0</v>
       </c>
-      <c r="S34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="S34" s="45">
+        <v>0</v>
+      </c>
+      <c r="T34" s="48">
+        <f>pc_stat_data!P34*0.7</f>
+        <v>0.1575</v>
+      </c>
+      <c r="U34" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V34)*0.1 - T34)*Z$5)  -  ((pc_stat_data!I34+pc_stat_data!J34-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K34+pc_stat_data!L34-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="V34" s="48">
+        <f>('!시뮬레이터'!C$10 - (W34/2 *Y$5) - (pc_stat_data!G34+pc_stat_data!H34 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M34-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N34-'!시뮬레이터'!M$10)*0.9901)) *X34</f>
+        <v>9.3814852200000001</v>
+      </c>
+      <c r="W34" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="X34" s="48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="39">
         <v>100006</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -4209,13 +5078,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="13">
-        <v>6.2</v>
+        <f>ROUNDUP(pc_stat_data!V35,3)</f>
+        <v>7.4560000000000004</v>
       </c>
       <c r="E35" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0.1</v>
+        <f>ROUNDUP(pc_stat_data!U35,3)</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
       </c>
       <c r="G35" s="13">
         <v>0.04</v>
@@ -4224,28 +5095,28 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I35" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
       </c>
       <c r="M35" s="13">
         <v>0</v>
       </c>
       <c r="N35" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="O35" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="P35" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0.125</v>
       </c>
       <c r="Q35" s="13">
         <v>0</v>
@@ -4253,12 +5124,30 @@
       <c r="R35" s="13">
         <v>0</v>
       </c>
-      <c r="S35" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="S35" s="47">
+        <v>0</v>
+      </c>
+      <c r="T35" s="48">
+        <f>pc_stat_data!P35*0.7</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="U35" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V35)*0.1 - T35)*Z$5)  -  ((pc_stat_data!I35+pc_stat_data!J35-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K35+pc_stat_data!L35-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="V35" s="48">
+        <f>('!시뮬레이터'!C$5 - (W35/2 *Y$5) - (pc_stat_data!G35+pc_stat_data!H35 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M35-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N35-'!시뮬레이터'!M$5)*0.9901)) *X35</f>
+        <v>7.4557921</v>
+      </c>
+      <c r="W35" s="48">
+        <v>2</v>
+      </c>
+      <c r="X35" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
         <v>100006</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4268,13 +5157,15 @@
         <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>6.9</v>
+        <f>ROUNDUP(pc_stat_data!V36,3)</f>
+        <v>7.9570000000000007</v>
       </c>
       <c r="E36" s="7">
-        <v>0.5</v>
+        <f>ROUNDUP(pc_stat_data!U36,3)</f>
+        <v>0.80100000000000005</v>
       </c>
       <c r="F36" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G36" s="7">
         <v>4.4999999999999998E-2</v>
@@ -4283,41 +5174,59 @@
         <v>0.03</v>
       </c>
       <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
         <v>0.15</v>
       </c>
-      <c r="J36" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O36" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
       <c r="Q36" s="7">
         <v>0</v>
       </c>
       <c r="R36" s="7">
         <v>0</v>
       </c>
-      <c r="S36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="S36" s="44">
+        <v>0</v>
+      </c>
+      <c r="T36" s="48">
+        <f>pc_stat_data!P36*0.7</f>
+        <v>0.105</v>
+      </c>
+      <c r="U36" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V36)*0.1 - T36)*Z$5)  -  ((pc_stat_data!I36+pc_stat_data!J36-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K36+pc_stat_data!L36-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="V36" s="48">
+        <f>('!시뮬레이터'!C$6 - (W36/2 *Y$5) - (pc_stat_data!G36+pc_stat_data!H36 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M36-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N36-'!시뮬레이터'!M$6)*0.9901)) *X36</f>
+        <v>7.9566832000000005</v>
+      </c>
+      <c r="W36" s="48">
+        <v>2</v>
+      </c>
+      <c r="X36" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
         <v>100006</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4327,13 +5236,15 @@
         <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>7.6</v>
+        <f>ROUNDUP(pc_stat_data!V37,3)</f>
+        <v>8.4580000000000002</v>
       </c>
       <c r="E37" s="7">
-        <v>0.55000000000000004</v>
+        <f>ROUNDUP(pc_stat_data!U37,3)</f>
+        <v>0.82899999999999996</v>
       </c>
       <c r="F37" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7">
         <v>0.05</v>
@@ -4342,28 +5253,28 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I37" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K37" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L37" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P37" s="7">
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="Q37" s="7">
         <v>0</v>
@@ -4371,12 +5282,30 @@
       <c r="R37" s="7">
         <v>0</v>
       </c>
-      <c r="S37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="S37" s="44">
+        <v>0</v>
+      </c>
+      <c r="T37" s="48">
+        <f>pc_stat_data!P37*0.7</f>
+        <v>0.12249999999999998</v>
+      </c>
+      <c r="U37" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V37)*0.1 - T37)*Z$5)  -  ((pc_stat_data!I37+pc_stat_data!J37-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K37+pc_stat_data!L37-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="V37" s="48">
+        <f>('!시뮬레이터'!C$7 - (W37/2 *Y$5) - (pc_stat_data!G37+pc_stat_data!H37 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M37-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N37-'!시뮬레이터'!M$7)*0.9901)) *X37</f>
+        <v>8.4575742999999992</v>
+      </c>
+      <c r="W37" s="48">
+        <v>2</v>
+      </c>
+      <c r="X37" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
         <v>100006</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4386,13 +5315,15 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>8.3000000000000007</v>
+        <f>ROUNDUP(pc_stat_data!V38,3)</f>
+        <v>8.9589999999999996</v>
       </c>
       <c r="E38" s="7">
-        <v>0.6</v>
+        <f>ROUNDUP(pc_stat_data!U38,3)</f>
+        <v>0.85599999999999998</v>
       </c>
       <c r="F38" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G38" s="7">
         <v>5.5E-2</v>
@@ -4401,41 +5332,59 @@
         <v>0.04</v>
       </c>
       <c r="I38" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
         <v>0.2</v>
       </c>
-      <c r="L38" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O38" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
       <c r="Q38" s="7">
         <v>0</v>
       </c>
       <c r="R38" s="7">
         <v>0</v>
       </c>
-      <c r="S38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="S38" s="44">
+        <v>0</v>
+      </c>
+      <c r="T38" s="48">
+        <f>pc_stat_data!P38*0.7</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="U38" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V38)*0.1 - T38)*Z$5)  -  ((pc_stat_data!I38+pc_stat_data!J38-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K38+pc_stat_data!L38-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="V38" s="48">
+        <f>('!시뮬레이터'!C$8 - (W38/2 *Y$5) - (pc_stat_data!G38+pc_stat_data!H38 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M38-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N38-'!시뮬레이터'!M$8)*0.9901)) *X38</f>
+        <v>8.9584653999999997</v>
+      </c>
+      <c r="W38" s="48">
+        <v>2</v>
+      </c>
+      <c r="X38" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
         <v>100006</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -4445,13 +5394,15 @@
         <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>9</v>
+        <f>ROUNDUP(pc_stat_data!V39,3)</f>
+        <v>9.4599999999999991</v>
       </c>
       <c r="E39" s="7">
-        <v>0.65</v>
+        <f>ROUNDUP(pc_stat_data!U39,3)</f>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F39" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="7">
         <v>0.06</v>
@@ -4460,28 +5411,28 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I39" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K39" s="7">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L39" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="N39" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P39" s="7">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="Q39" s="7">
         <v>0</v>
@@ -4489,12 +5440,30 @@
       <c r="R39" s="7">
         <v>0</v>
       </c>
-      <c r="S39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16">
+      <c r="S39" s="44">
+        <v>0</v>
+      </c>
+      <c r="T39" s="48">
+        <f>pc_stat_data!P39*0.7</f>
+        <v>0.1575</v>
+      </c>
+      <c r="U39" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V39)*0.1 - T39)*Z$5)  -  ((pc_stat_data!I39+pc_stat_data!J39-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K39+pc_stat_data!L39-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="V39" s="48">
+        <f>('!시뮬레이터'!C$9 - (W39/2 *Y$5) - (pc_stat_data!G39+pc_stat_data!H39 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M39-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N39-'!시뮬레이터'!M$9)*0.9901)) *X39</f>
+        <v>9.4593565000000002</v>
+      </c>
+      <c r="W39" s="48">
+        <v>2</v>
+      </c>
+      <c r="X39" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28">
         <v>100006</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -4504,13 +5473,15 @@
         <v>6</v>
       </c>
       <c r="D40" s="16">
-        <v>9.6999999999999993</v>
+        <f>ROUNDUP(pc_stat_data!V40,3)</f>
+        <v>9.9610000000000003</v>
       </c>
       <c r="E40" s="16">
-        <v>0.7</v>
+        <f>ROUNDUP(pc_stat_data!U40,3)</f>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F40" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16">
         <v>6.5000000000000002E-2</v>
@@ -4519,28 +5490,28 @@
         <v>0.05</v>
       </c>
       <c r="I40" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J40" s="16">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="16">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="L40" s="16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M40" s="16">
         <v>0</v>
       </c>
       <c r="N40" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O40" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P40" s="16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q40" s="16">
         <v>0</v>
@@ -4548,12 +5519,30 @@
       <c r="R40" s="16">
         <v>0</v>
       </c>
-      <c r="S40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="S40" s="45">
+        <v>0</v>
+      </c>
+      <c r="T40" s="48">
+        <f>pc_stat_data!P40*0.7</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="U40" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V40)*0.1 - T40)*Z$5)  -  ((pc_stat_data!I40+pc_stat_data!J40-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K40+pc_stat_data!L40-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="V40" s="48">
+        <f>('!시뮬레이터'!C$10 - (W40/2 *Y$5) - (pc_stat_data!G40+pc_stat_data!H40 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M40-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N40-'!시뮬레이터'!M$10)*0.9901)) *X40</f>
+        <v>9.9602476000000006</v>
+      </c>
+      <c r="W40" s="48">
+        <v>2</v>
+      </c>
+      <c r="X40" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="39">
         <v>100007</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4563,13 +5552,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="13">
-        <v>5.75</v>
+        <f>ROUNDUP(pc_stat_data!V41,3)</f>
+        <v>4.6920000000000002</v>
       </c>
       <c r="E41" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="F41" s="13">
-        <v>0.1</v>
+        <f>ROUNDUP(pc_stat_data!U41,3)</f>
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
       </c>
       <c r="G41" s="13">
         <v>0.01</v>
@@ -4577,27 +5568,27 @@
       <c r="H41" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I41" s="4">
-        <v>0.1</v>
+      <c r="I41" s="23">
+        <v>0.01</v>
       </c>
       <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+      <c r="O41" s="23">
         <v>0.01</v>
       </c>
-      <c r="K41" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M41" s="13">
-        <v>0</v>
-      </c>
-      <c r="N41" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O41" s="13">
-        <v>1E-3</v>
-      </c>
       <c r="P41" s="13">
         <v>0</v>
       </c>
@@ -4607,12 +5598,30 @@
       <c r="R41" s="13">
         <v>0</v>
       </c>
-      <c r="S41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="S41" s="47">
+        <v>0</v>
+      </c>
+      <c r="T41" s="48">
+        <f>pc_stat_data!P41*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V41)*0.1 - T41)*Z$5)  -  ((pc_stat_data!I41+pc_stat_data!J41-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K41+pc_stat_data!L41-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>1.0659999999999998</v>
+      </c>
+      <c r="V41" s="48">
+        <f>('!시뮬레이터'!C$5 - (W41/2 *Y$5) - (pc_stat_data!G41+pc_stat_data!H41 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M41-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N41-'!시뮬레이터'!M$5)*0.9901)) *X41</f>
+        <v>4.6918440749999997</v>
+      </c>
+      <c r="W41" s="48">
+        <v>7</v>
+      </c>
+      <c r="X41" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
         <v>100007</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -4622,13 +5631,15 @@
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>6.25</v>
+        <f>ROUNDUP(pc_stat_data!V42,3)</f>
+        <v>5.0790000000000006</v>
       </c>
       <c r="E42" s="7">
-        <v>0.67</v>
+        <f>ROUNDUP(pc_stat_data!U42,3)</f>
+        <v>1.1140000000000001</v>
       </c>
       <c r="F42" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G42" s="7">
         <v>5.4999999999999997E-3</v>
@@ -4637,26 +5648,26 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I42" s="7">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K42" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O42" s="7">
-        <v>2E-3</v>
-      </c>
       <c r="P42" s="7">
         <v>0</v>
       </c>
@@ -4666,12 +5677,30 @@
       <c r="R42" s="7">
         <v>0</v>
       </c>
-      <c r="S42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="S42" s="44">
+        <v>0</v>
+      </c>
+      <c r="T42" s="48">
+        <f>pc_stat_data!P42*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V42)*0.1 - T42)*Z$5)  -  ((pc_stat_data!I42+pc_stat_data!J42-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K42+pc_stat_data!L42-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>1.1139999999999999</v>
+      </c>
+      <c r="V42" s="48">
+        <f>('!시뮬레이터'!C$6 - (W42/2 *Y$5) - (pc_stat_data!G42+pc_stat_data!H42 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M42-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N42-'!시뮬레이터'!M$6)*0.9901)) *X42</f>
+        <v>5.0780124000000004</v>
+      </c>
+      <c r="W42" s="48">
+        <v>7</v>
+      </c>
+      <c r="X42" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
         <v>100007</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -4681,13 +5710,15 @@
         <v>3</v>
       </c>
       <c r="D43" s="7">
-        <v>6.75</v>
+        <f>ROUNDUP(pc_stat_data!V43,3)</f>
+        <v>5.4610000000000003</v>
       </c>
       <c r="E43" s="7">
-        <v>0.72</v>
+        <f>ROUNDUP(pc_stat_data!U43,3)</f>
+        <v>1.165</v>
       </c>
       <c r="F43" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
         <v>6.0000000000000001E-3</v>
@@ -4696,26 +5727,26 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I43" s="7">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
         <v>0.02</v>
       </c>
-      <c r="K43" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O43" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="P43" s="7">
         <v>0</v>
       </c>
@@ -4725,12 +5756,30 @@
       <c r="R43" s="7">
         <v>0</v>
       </c>
-      <c r="S43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="S43" s="44">
+        <v>0</v>
+      </c>
+      <c r="T43" s="48">
+        <f>pc_stat_data!P43*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V43)*0.1 - T43)*Z$5)  -  ((pc_stat_data!I43+pc_stat_data!J43-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K43+pc_stat_data!L43-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.1649999999999998</v>
+      </c>
+      <c r="V43" s="48">
+        <f>('!시뮬레이터'!C$7 - (W43/2 *Y$5) - (pc_stat_data!G43+pc_stat_data!H43 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M43-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N43-'!시뮬레이터'!M$7)*0.9901)) *X43</f>
+        <v>5.4604307250000002</v>
+      </c>
+      <c r="W43" s="48">
+        <v>7</v>
+      </c>
+      <c r="X43" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
         <v>100007</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -4740,13 +5789,15 @@
         <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>7.25</v>
+        <f>ROUNDUP(pc_stat_data!V44,3)</f>
+        <v>5.843</v>
       </c>
       <c r="E44" s="7">
-        <v>0.77</v>
+        <f>ROUNDUP(pc_stat_data!U44,3)</f>
+        <v>1.2150000000000001</v>
       </c>
       <c r="F44" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G44" s="7">
         <v>6.4999999999999997E-3</v>
@@ -4755,26 +5806,26 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="I44" s="7">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K44" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O44" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="P44" s="7">
         <v>0</v>
       </c>
@@ -4784,12 +5835,30 @@
       <c r="R44" s="7">
         <v>0</v>
       </c>
-      <c r="S44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="S44" s="44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="48">
+        <f>pc_stat_data!P44*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V44)*0.1 - T44)*Z$5)  -  ((pc_stat_data!I44+pc_stat_data!J44-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K44+pc_stat_data!L44-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.2149999999999999</v>
+      </c>
+      <c r="V44" s="48">
+        <f>('!시뮬레이터'!C$8 - (W44/2 *Y$5) - (pc_stat_data!G44+pc_stat_data!H44 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M44-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N44-'!시뮬레이터'!M$8)*0.9901)) *X44</f>
+        <v>5.8428490499999999</v>
+      </c>
+      <c r="W44" s="48">
+        <v>7</v>
+      </c>
+      <c r="X44" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
         <v>100007</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -4799,13 +5868,15 @@
         <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>7.75</v>
+        <f>ROUNDUP(pc_stat_data!V45,3)</f>
+        <v>6.226</v>
       </c>
       <c r="E45" s="7">
-        <v>0.82</v>
+        <f>ROUNDUP(pc_stat_data!U45,3)</f>
+        <v>1.2649999999999999</v>
       </c>
       <c r="F45" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G45" s="7">
         <v>7.0000000000000001E-3</v>
@@ -4814,26 +5885,26 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I45" s="7">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
         <v>0.03</v>
       </c>
-      <c r="K45" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O45" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
       <c r="P45" s="7">
         <v>0</v>
       </c>
@@ -4843,12 +5914,30 @@
       <c r="R45" s="7">
         <v>0</v>
       </c>
-      <c r="S45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16">
+      <c r="S45" s="44">
+        <v>0</v>
+      </c>
+      <c r="T45" s="48">
+        <f>pc_stat_data!P45*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V45)*0.1 - T45)*Z$5)  -  ((pc_stat_data!I45+pc_stat_data!J45-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K45+pc_stat_data!L45-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="V45" s="48">
+        <f>('!시뮬레이터'!C$9 - (W45/2 *Y$5) - (pc_stat_data!G45+pc_stat_data!H45 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M45-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N45-'!시뮬레이터'!M$9)*0.9901)) *X45</f>
+        <v>6.2252673749999996</v>
+      </c>
+      <c r="W45" s="48">
+        <v>7</v>
+      </c>
+      <c r="X45" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28">
         <v>100007</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -4858,13 +5947,15 @@
         <v>6</v>
       </c>
       <c r="D46" s="16">
-        <v>8.25</v>
+        <f>ROUNDUP(pc_stat_data!V46,3)</f>
+        <v>6.6080000000000005</v>
       </c>
       <c r="E46" s="16">
-        <v>0.87</v>
+        <f>ROUNDUP(pc_stat_data!U46,3)</f>
+        <v>1.3149999999999999</v>
       </c>
       <c r="F46" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G46" s="16">
         <v>7.4999999999999997E-3</v>
@@ -4873,26 +5964,26 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="I46" s="16">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
+        <v>0</v>
+      </c>
+      <c r="N46" s="16">
+        <v>0</v>
+      </c>
+      <c r="O46" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K46" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="L46" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="M46" s="16">
-        <v>0</v>
-      </c>
-      <c r="N46" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O46" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
       <c r="P46" s="16">
         <v>0</v>
       </c>
@@ -4902,12 +5993,30 @@
       <c r="R46" s="16">
         <v>0</v>
       </c>
-      <c r="S46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="S46" s="45">
+        <v>0</v>
+      </c>
+      <c r="T46" s="48">
+        <f>pc_stat_data!P46*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U46" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V46)*0.1 - T46)*Z$5)  -  ((pc_stat_data!I46+pc_stat_data!J46-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K46+pc_stat_data!L46-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="V46" s="48">
+        <f>('!시뮬레이터'!C$10 - (W46/2 *Y$5) - (pc_stat_data!G46+pc_stat_data!H46 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M46-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N46-'!시뮬레이터'!M$10)*0.9901)) *X46</f>
+        <v>6.6076857000000002</v>
+      </c>
+      <c r="W46" s="48">
+        <v>7</v>
+      </c>
+      <c r="X46" s="48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="39">
         <v>100008</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -4917,13 +6026,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="13">
-        <v>5.75</v>
+        <f>ROUNDUP(pc_stat_data!V47,3)</f>
+        <v>6.1510000000000007</v>
       </c>
       <c r="E47" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="F47" s="13">
-        <v>0.1</v>
+        <f>ROUNDUP(pc_stat_data!U47,3)</f>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
       </c>
       <c r="G47" s="13">
         <v>0.01</v>
@@ -4931,26 +6042,26 @@
       <c r="H47" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I47" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="J47" s="11">
+      <c r="I47" s="23">
         <v>0.01</v>
       </c>
-      <c r="K47" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="L47" s="11">
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="N47" s="23">
         <v>0.01</v>
       </c>
-      <c r="M47" s="13">
-        <v>0</v>
-      </c>
-      <c r="N47" s="13">
-        <v>1E-3</v>
-      </c>
       <c r="O47" s="13">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="P47" s="13">
         <v>0</v>
@@ -4961,12 +6072,30 @@
       <c r="R47" s="13">
         <v>0</v>
       </c>
-      <c r="S47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="S47" s="47">
+        <v>0</v>
+      </c>
+      <c r="T47" s="48">
+        <f>pc_stat_data!P47*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V47)*0.1 - T47)*Z$5)  -  ((pc_stat_data!I47+pc_stat_data!J47-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K47+pc_stat_data!L47-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="V47" s="48">
+        <f>('!시뮬레이터'!C$5 - (W47/2 *Y$5) - (pc_stat_data!G47+pc_stat_data!H47 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M47-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N47-'!시뮬레이터'!M$5)*0.9901)) *X47</f>
+        <v>6.1505244349999995</v>
+      </c>
+      <c r="W47" s="48">
+        <v>3</v>
+      </c>
+      <c r="X47" s="48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
         <v>100008</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4976,13 +6105,15 @@
         <v>2</v>
       </c>
       <c r="D48" s="7">
-        <v>6.25</v>
+        <f>ROUNDUP(pc_stat_data!V48,3)</f>
+        <v>6.5830000000000002</v>
       </c>
       <c r="E48" s="7">
-        <v>0.67</v>
+        <f>ROUNDUP(pc_stat_data!U48,3)</f>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F48" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G48" s="7">
         <v>5.4999999999999997E-3</v>
@@ -4991,25 +6122,25 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I48" s="7">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="N48" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K48" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>2E-3</v>
-      </c>
       <c r="O48" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="P48" s="7">
         <v>0</v>
@@ -5020,12 +6151,30 @@
       <c r="R48" s="7">
         <v>0</v>
       </c>
-      <c r="S48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="S48" s="44">
+        <v>0</v>
+      </c>
+      <c r="T48" s="48">
+        <f>pc_stat_data!P48*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V48)*0.1 - T48)*Z$5)  -  ((pc_stat_data!I48+pc_stat_data!J48-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K48+pc_stat_data!L48-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="V48" s="48">
+        <f>('!시뮬레이터'!C$6 - (W48/2 *Y$5) - (pc_stat_data!G48+pc_stat_data!H48 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M48-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N48-'!시뮬레이터'!M$6)*0.9901)) *X48</f>
+        <v>6.5822773450000005</v>
+      </c>
+      <c r="W48" s="48">
+        <v>3</v>
+      </c>
+      <c r="X48" s="48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
         <v>100008</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -5035,13 +6184,15 @@
         <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>6.75</v>
+        <f>ROUNDUP(pc_stat_data!V49,3)</f>
+        <v>7.0100000000000007</v>
       </c>
       <c r="E49" s="7">
-        <v>0.72</v>
+        <f>ROUNDUP(pc_stat_data!U49,3)</f>
+        <v>1.0409999999999999</v>
       </c>
       <c r="F49" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="7">
         <v>6.0000000000000001E-3</v>
@@ -5050,25 +6201,25 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I49" s="7">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N49" s="7">
         <v>0.02</v>
       </c>
-      <c r="K49" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="O49" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P49" s="7">
         <v>0</v>
@@ -5079,12 +6230,30 @@
       <c r="R49" s="7">
         <v>0</v>
       </c>
-      <c r="S49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="S49" s="44">
+        <v>0</v>
+      </c>
+      <c r="T49" s="48">
+        <f>pc_stat_data!P49*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V49)*0.1 - T49)*Z$5)  -  ((pc_stat_data!I49+pc_stat_data!J49-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K49+pc_stat_data!L49-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="V49" s="48">
+        <f>('!시뮬레이터'!C$7 - (W49/2 *Y$5) - (pc_stat_data!G49+pc_stat_data!H49 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M49-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N49-'!시뮬레이터'!M$7)*0.9901)) *X49</f>
+        <v>7.0097802549999999</v>
+      </c>
+      <c r="W49" s="48">
+        <v>3</v>
+      </c>
+      <c r="X49" s="48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
         <v>100008</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -5094,13 +6263,15 @@
         <v>4</v>
       </c>
       <c r="D50" s="7">
-        <v>7.25</v>
+        <f>ROUNDUP(pc_stat_data!V50,3)</f>
+        <v>7.4380000000000006</v>
       </c>
       <c r="E50" s="7">
-        <v>0.77</v>
+        <f>ROUNDUP(pc_stat_data!U50,3)</f>
+        <v>1.087</v>
       </c>
       <c r="F50" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G50" s="7">
         <v>6.4999999999999997E-3</v>
@@ -5109,25 +6280,25 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="I50" s="7">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="N50" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K50" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="O50" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P50" s="7">
         <v>0</v>
@@ -5138,12 +6309,30 @@
       <c r="R50" s="7">
         <v>0</v>
       </c>
-      <c r="S50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="S50" s="44">
+        <v>0</v>
+      </c>
+      <c r="T50" s="48">
+        <f>pc_stat_data!P50*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V50)*0.1 - T50)*Z$5)  -  ((pc_stat_data!I50+pc_stat_data!J50-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K50+pc_stat_data!L50-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.087</v>
+      </c>
+      <c r="V50" s="48">
+        <f>('!시뮬레이터'!C$8 - (W50/2 *Y$5) - (pc_stat_data!G50+pc_stat_data!H50 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M50-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N50-'!시뮬레이터'!M$8)*0.9901)) *X50</f>
+        <v>7.4372831649999993</v>
+      </c>
+      <c r="W50" s="48">
+        <v>3</v>
+      </c>
+      <c r="X50" s="48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>100008</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5153,13 +6342,15 @@
         <v>5</v>
       </c>
       <c r="D51" s="7">
-        <v>7.75</v>
+        <f>ROUNDUP(pc_stat_data!V51,3)</f>
+        <v>7.8650000000000002</v>
       </c>
       <c r="E51" s="7">
-        <v>0.82</v>
+        <f>ROUNDUP(pc_stat_data!U51,3)</f>
+        <v>1.1339999999999999</v>
       </c>
       <c r="F51" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G51" s="7">
         <v>7.0000000000000001E-3</v>
@@ -5168,25 +6359,25 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I51" s="7">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="N51" s="7">
         <v>0.03</v>
       </c>
-      <c r="K51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
       <c r="O51" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P51" s="7">
         <v>0</v>
@@ -5197,12 +6388,30 @@
       <c r="R51" s="7">
         <v>0</v>
       </c>
-      <c r="S51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16">
+      <c r="S51" s="44">
+        <v>0</v>
+      </c>
+      <c r="T51" s="48">
+        <f>pc_stat_data!P51*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V51)*0.1 - T51)*Z$5)  -  ((pc_stat_data!I51+pc_stat_data!J51-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K51+pc_stat_data!L51-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="V51" s="48">
+        <f>('!시뮬레이터'!C$9 - (W51/2 *Y$5) - (pc_stat_data!G51+pc_stat_data!H51 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M51-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N51-'!시뮬레이터'!M$9)*0.9901)) *X51</f>
+        <v>7.8647860750000005</v>
+      </c>
+      <c r="W51" s="48">
+        <v>3</v>
+      </c>
+      <c r="X51" s="48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="28">
         <v>100008</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -5212,13 +6421,15 @@
         <v>6</v>
       </c>
       <c r="D52" s="16">
-        <v>8.25</v>
+        <f>ROUNDUP(pc_stat_data!V52,3)</f>
+        <v>8.2929999999999993</v>
       </c>
       <c r="E52" s="16">
-        <v>0.87</v>
+        <f>ROUNDUP(pc_stat_data!U52,3)</f>
+        <v>1.18</v>
       </c>
       <c r="F52" s="16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G52" s="16">
         <v>7.4999999999999997E-3</v>
@@ -5227,25 +6438,25 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="I52" s="16">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="N52" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K52" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="L52" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="M52" s="16">
-        <v>0</v>
-      </c>
-      <c r="N52" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
       <c r="O52" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -5256,12 +6467,30 @@
       <c r="R52" s="16">
         <v>0</v>
       </c>
-      <c r="S52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+      <c r="S52" s="45">
+        <v>0</v>
+      </c>
+      <c r="T52" s="48">
+        <f>pc_stat_data!P52*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V52)*0.1 - T52)*Z$5)  -  ((pc_stat_data!I52+pc_stat_data!J52-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K52+pc_stat_data!L52-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.18</v>
+      </c>
+      <c r="V52" s="48">
+        <f>('!시뮬레이터'!C$10 - (W52/2 *Y$5) - (pc_stat_data!G52+pc_stat_data!H52 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M52-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N52-'!시뮬레이터'!M$10)*0.9901)) *X52</f>
+        <v>8.292288984999999</v>
+      </c>
+      <c r="W52" s="48">
+        <v>3</v>
+      </c>
+      <c r="X52" s="48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="39">
         <v>100009</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -5271,13 +6500,15 @@
         <v>1</v>
       </c>
       <c r="D53" s="11">
-        <v>5</v>
+        <f>ROUNDUP(pc_stat_data!V53,3)</f>
+        <v>4.2010000000000005</v>
       </c>
       <c r="E53" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F53" s="11">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <f>ROUNDUP(pc_stat_data!U53,3)</f>
+        <v>1.105</v>
       </c>
       <c r="G53" s="11">
         <v>5.0000000000000001E-3</v>
@@ -5285,27 +6516,27 @@
       <c r="H53" s="11">
         <v>0.01</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="23">
         <v>0.01</v>
       </c>
-      <c r="J53" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K53" s="11">
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
+      <c r="O53" s="23">
         <v>0.01</v>
       </c>
-      <c r="L53" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="M53" s="11">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="O53" s="11">
-        <v>1E-3</v>
-      </c>
       <c r="P53" s="11">
         <v>0</v>
       </c>
@@ -5315,12 +6546,30 @@
       <c r="R53" s="11">
         <v>0</v>
       </c>
-      <c r="S53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="S53" s="43">
+        <v>0</v>
+      </c>
+      <c r="T53" s="48">
+        <f>pc_stat_data!P53*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V53)*0.1 - T53)*Z$5)  -  ((pc_stat_data!I53+pc_stat_data!J53-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K53+pc_stat_data!L53-'!시뮬레이터'!J$5)*0.075),3)</f>
+        <v>1.105</v>
+      </c>
+      <c r="V53" s="48">
+        <f>('!시뮬레이터'!C$5 - (W53/2 *Y$5) - (pc_stat_data!G53+pc_stat_data!H53 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M53-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N53-'!시뮬레이터'!M$5)*0.9901)) *X53</f>
+        <v>4.2005614699999994</v>
+      </c>
+      <c r="W53" s="49">
+        <v>8</v>
+      </c>
+      <c r="X53" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
         <v>100009</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -5330,13 +6579,15 @@
         <v>2</v>
       </c>
       <c r="D54" s="7">
-        <v>5.5</v>
+        <f>ROUNDUP(pc_stat_data!V54,3)</f>
+        <v>4.5540000000000003</v>
       </c>
       <c r="E54" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>0.55000000000000004</v>
+        <f>ROUNDUP(pc_stat_data!U54,3)</f>
+        <v>1.1559999999999999</v>
       </c>
       <c r="G54" s="7">
         <v>5.4999999999999997E-3</v>
@@ -5345,25 +6596,25 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J54" s="7">
-        <v>0.15</v>
-      </c>
       <c r="K54" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L54" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M54" s="7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N54" s="7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7">
-        <v>2E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P54" s="7">
         <v>0</v>
@@ -5374,12 +6625,30 @@
       <c r="R54" s="7">
         <v>0</v>
       </c>
-      <c r="S54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="S54" s="44">
+        <v>0</v>
+      </c>
+      <c r="T54" s="48">
+        <f>pc_stat_data!P54*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V54)*0.1 - T54)*Z$5)  -  ((pc_stat_data!I54+pc_stat_data!J54-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K54+pc_stat_data!L54-'!시뮬레이터'!J$65)*0.075),3)</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="V54" s="48">
+        <f>('!시뮬레이터'!C$6 - (W54/2 *Y$5) - (pc_stat_data!G54+pc_stat_data!H54 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M54-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N54-'!시뮬레이터'!M$6)*0.9901)) *X54</f>
+        <v>4.5536366399999997</v>
+      </c>
+      <c r="W54" s="48">
+        <v>8</v>
+      </c>
+      <c r="X54" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
         <v>100009</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -5389,13 +6658,15 @@
         <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>6</v>
+        <f>ROUNDUP(pc_stat_data!V55,3)</f>
+        <v>4.907</v>
       </c>
       <c r="E55" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>0.6</v>
+        <f>ROUNDUP(pc_stat_data!U55,3)</f>
+        <v>1.2090000000000001</v>
       </c>
       <c r="G55" s="7">
         <v>6.0000000000000001E-3</v>
@@ -5404,25 +6675,25 @@
         <v>0.02</v>
       </c>
       <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
         <v>0.02</v>
       </c>
-      <c r="J55" s="7">
-        <v>0.2</v>
-      </c>
       <c r="K55" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L55" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N55" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -5433,12 +6704,30 @@
       <c r="R55" s="7">
         <v>0</v>
       </c>
-      <c r="S55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+      <c r="S55" s="44">
+        <v>0</v>
+      </c>
+      <c r="T55" s="48">
+        <f>pc_stat_data!P55*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V55)*0.1 - T55)*Z$5)  -  ((pc_stat_data!I55+pc_stat_data!J55-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K55+pc_stat_data!L55-'!시뮬레이터'!J$7)*0.075),3)</f>
+        <v>1.2089999999999999</v>
+      </c>
+      <c r="V55" s="48">
+        <f>('!시뮬레이터'!C$7 - (W55/2 *Y$5) - (pc_stat_data!G55+pc_stat_data!H55 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M55-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N55-'!시뮬레이터'!M$7)*0.9901)) *X55</f>
+        <v>4.90671181</v>
+      </c>
+      <c r="W55" s="48">
+        <v>8</v>
+      </c>
+      <c r="X55" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
         <v>100009</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -5448,13 +6737,15 @@
         <v>4</v>
       </c>
       <c r="D56" s="7">
-        <v>6.5</v>
+        <f>ROUNDUP(pc_stat_data!V56,3)</f>
+        <v>5.2600000000000007</v>
       </c>
       <c r="E56" s="7">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F56" s="7">
-        <v>0.65</v>
+        <f>ROUNDUP(pc_stat_data!U56,3)</f>
+        <v>1.262</v>
       </c>
       <c r="G56" s="7">
         <v>6.4999999999999997E-3</v>
@@ -5463,25 +6754,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J56" s="7">
-        <v>0.25</v>
-      </c>
       <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
         <v>0.04</v>
       </c>
-      <c r="L56" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
       <c r="N56" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -5492,12 +6783,30 @@
       <c r="R56" s="7">
         <v>0</v>
       </c>
-      <c r="S56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="S56" s="44">
+        <v>0</v>
+      </c>
+      <c r="T56" s="48">
+        <f>pc_stat_data!P56*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V56)*0.1 - T56)*Z$5)  -  ((pc_stat_data!I56+pc_stat_data!J56-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K56+pc_stat_data!L56-'!시뮬레이터'!J$8)*0.075),3)</f>
+        <v>1.2619999999999998</v>
+      </c>
+      <c r="V56" s="48">
+        <f>('!시뮬레이터'!C$8 - (W56/2 *Y$5) - (pc_stat_data!G56+pc_stat_data!H56 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M56-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N56-'!시뮬레이터'!M$8)*0.9901)) *X56</f>
+        <v>5.2597869799999994</v>
+      </c>
+      <c r="W56" s="48">
+        <v>8</v>
+      </c>
+      <c r="X56" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
         <v>100009</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -5507,13 +6816,15 @@
         <v>5</v>
       </c>
       <c r="D57" s="4">
-        <v>7</v>
+        <f>ROUNDUP(pc_stat_data!V57,3)</f>
+        <v>5.6130000000000004</v>
       </c>
       <c r="E57" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>0.7</v>
+        <f>ROUNDUP(pc_stat_data!U57,3)</f>
+        <v>1.3140000000000001</v>
       </c>
       <c r="G57" s="7">
         <v>7.0000000000000001E-3</v>
@@ -5522,25 +6833,25 @@
         <v>0.03</v>
       </c>
       <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
         <v>0.03</v>
       </c>
-      <c r="J57" s="7">
-        <v>0.3</v>
-      </c>
       <c r="K57" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L57" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M57" s="7">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N57" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -5551,12 +6862,30 @@
       <c r="R57" s="7">
         <v>0</v>
       </c>
-      <c r="S57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16">
+      <c r="S57" s="44">
+        <v>0</v>
+      </c>
+      <c r="T57" s="48">
+        <f>pc_stat_data!P57*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V57)*0.1 - T57)*Z$5)  -  ((pc_stat_data!I57+pc_stat_data!J57-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K57+pc_stat_data!L57-'!시뮬레이터'!J$9)*0.075),3)</f>
+        <v>1.3139999999999998</v>
+      </c>
+      <c r="V57" s="48">
+        <f>('!시뮬레이터'!C$9 - (W57/2 *Y$5) - (pc_stat_data!G57+pc_stat_data!H57 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M57-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N57-'!시뮬레이터'!M$9)*0.9901)) *X57</f>
+        <v>5.6128621499999998</v>
+      </c>
+      <c r="W57" s="48">
+        <v>8</v>
+      </c>
+      <c r="X57" s="48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28">
         <v>100009</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -5566,13 +6895,15 @@
         <v>6</v>
       </c>
       <c r="D58" s="16">
-        <v>7.5</v>
+        <f>ROUNDUP(pc_stat_data!V58,3)</f>
+        <v>5.9660000000000002</v>
       </c>
       <c r="E58" s="16">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F58" s="16">
-        <v>0.75</v>
+        <f>ROUNDUP(pc_stat_data!U58,3)</f>
+        <v>1.3660000000000001</v>
       </c>
       <c r="G58" s="16">
         <v>7.4999999999999997E-3</v>
@@ -5581,25 +6912,25 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I58" s="16">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J58" s="16">
-        <v>0.35</v>
-      </c>
       <c r="K58" s="16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L58" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M58" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N58" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O58" s="16">
-        <v>6.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -5610,1429 +6941,32 @@
       <c r="R58" s="16">
         <v>0</v>
       </c>
-      <c r="S58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
-        <v>100011</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="11">
-        <v>1</v>
-      </c>
-      <c r="D59" s="11">
-        <v>5</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G59" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J59" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K59" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="L59" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="M59" s="11">
-        <v>0</v>
-      </c>
-      <c r="N59" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="O59" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="P59" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="Q59" s="11">
-        <v>0</v>
-      </c>
-      <c r="R59" s="11">
-        <v>0</v>
-      </c>
-      <c r="S59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="7">
-        <v>2</v>
-      </c>
-      <c r="D60" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E60" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G60" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H60" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="K60" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="L60" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O60" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="P60" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>0</v>
-      </c>
-      <c r="R60" s="7">
-        <v>0</v>
-      </c>
-      <c r="S60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="7">
-        <v>3</v>
-      </c>
-      <c r="D61" s="4">
-        <v>6</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G61" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="J61" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="K61" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="L61" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O61" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P61" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>0</v>
-      </c>
-      <c r="R61" s="7">
-        <v>0</v>
-      </c>
-      <c r="S61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="7">
-        <v>4</v>
-      </c>
-      <c r="D62" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="E62" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="F62" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="G62" s="7">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="H62" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I62" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="L62" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O62" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P62" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="Q62" s="7">
-        <v>0</v>
-      </c>
-      <c r="R62" s="7">
-        <v>0</v>
-      </c>
-      <c r="S62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="7">
-        <v>5</v>
-      </c>
-      <c r="D63" s="4">
-        <v>7</v>
-      </c>
-      <c r="E63" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F63" s="7">
+      <c r="S58" s="45">
+        <v>0</v>
+      </c>
+      <c r="T58" s="48">
+        <f>pc_stat_data!P58*0.7</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="48">
+        <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V58)*0.1 - T58)*Z$5)  -  ((pc_stat_data!I58+pc_stat_data!J58-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K58+pc_stat_data!L58-'!시뮬레이터'!J$10)*0.075),3)</f>
+        <v>1.3659999999999999</v>
+      </c>
+      <c r="V58" s="48">
+        <f>('!시뮬레이터'!C$10 - (W58/2 *Y$5) - (pc_stat_data!G58+pc_stat_data!H58 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M58-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N58-'!시뮬레이터'!M$10)*0.9901)) *X58</f>
+        <v>5.9659373199999992</v>
+      </c>
+      <c r="W58" s="48">
+        <v>8</v>
+      </c>
+      <c r="X58" s="48">
         <v>0.7</v>
       </c>
-      <c r="G63" s="7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="J63" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="K63" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="L63" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="N63" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O63" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P63" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>0</v>
-      </c>
-      <c r="R63" s="7">
-        <v>0</v>
-      </c>
-      <c r="S63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14">
-        <v>100011</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="16">
-        <v>6</v>
-      </c>
-      <c r="D64" s="16">
-        <v>7.5</v>
-      </c>
-      <c r="E64" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="F64" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="G64" s="16">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H64" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I64" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J64" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="K64" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="L64" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="M64" s="16">
-        <v>0</v>
-      </c>
-      <c r="N64" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O64" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P64" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="Q64" s="16">
-        <v>0</v>
-      </c>
-      <c r="R64" s="16">
-        <v>0</v>
-      </c>
-      <c r="S64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
-        <v>100012</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="13">
-        <v>1</v>
-      </c>
-      <c r="D65" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="E65" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="F65" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="H65" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K65" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="L65" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M65" s="13">
-        <v>0</v>
-      </c>
-      <c r="N65" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O65" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="P65" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="13">
-        <v>0</v>
-      </c>
-      <c r="R65" s="13">
-        <v>0</v>
-      </c>
-      <c r="S65" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="7">
-        <v>2</v>
-      </c>
-      <c r="D66" s="7">
-        <v>6</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G66" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H66" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="J66" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K66" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L66" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="M66" s="7">
-        <v>0</v>
-      </c>
-      <c r="N66" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O66" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="P66" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>0</v>
-      </c>
-      <c r="R66" s="7">
-        <v>0</v>
-      </c>
-      <c r="S66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="7">
-        <v>3</v>
-      </c>
-      <c r="D67" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="E67" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F67" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G67" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H67" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="J67" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="K67" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="L67" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
-      <c r="N67" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O67" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="7">
-        <v>0</v>
-      </c>
-      <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="7">
-        <v>4</v>
-      </c>
-      <c r="D68" s="7">
-        <v>7</v>
-      </c>
-      <c r="E68" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="G68" s="7">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="H68" s="7">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="J68" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K68" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="L68" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M68" s="7">
-        <v>0</v>
-      </c>
-      <c r="N68" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O68" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="7">
-        <v>0</v>
-      </c>
-      <c r="R68" s="7">
-        <v>0</v>
-      </c>
-      <c r="S68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>100012</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="7">
-        <v>5</v>
-      </c>
-      <c r="D69" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="E69" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G69" s="7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H69" s="7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="J69" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="K69" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L69" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M69" s="7">
-        <v>0</v>
-      </c>
-      <c r="N69" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O69" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>0</v>
-      </c>
-      <c r="R69" s="7">
-        <v>0</v>
-      </c>
-      <c r="S69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16">
-        <v>100012</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="16">
-        <v>6</v>
-      </c>
-      <c r="D70" s="16">
-        <v>8</v>
-      </c>
-      <c r="E70" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="F70" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="G70" s="16">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H70" s="16">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="I70" s="16">
-        <v>0.37</v>
-      </c>
-      <c r="J70" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K70" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="L70" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="M70" s="16">
-        <v>0</v>
-      </c>
-      <c r="N70" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O70" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P70" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
-        <v>0</v>
-      </c>
-      <c r="R70" s="16">
-        <v>0</v>
-      </c>
-      <c r="S70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
-        <v>100013</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="13">
-        <v>1</v>
-      </c>
-      <c r="D71" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="E71" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="F71" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G71" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="H71" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K71" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="L71" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M71" s="13">
-        <v>0</v>
-      </c>
-      <c r="N71" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O71" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="P71" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="13">
-        <v>0</v>
-      </c>
-      <c r="R71" s="13">
-        <v>0</v>
-      </c>
-      <c r="S71" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>100013</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="7">
-        <v>2</v>
-      </c>
-      <c r="D72" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G72" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="J72" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K72" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="M72" s="7">
-        <v>0</v>
-      </c>
-      <c r="N72" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O72" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="P72" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="7">
-        <v>0</v>
-      </c>
-      <c r="R72" s="7">
-        <v>0</v>
-      </c>
-      <c r="S72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
-        <v>100013</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="7">
-        <v>3</v>
-      </c>
-      <c r="D73" s="7">
-        <v>7.6</v>
-      </c>
-      <c r="E73" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H73" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J73" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="K73" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M73" s="7">
-        <v>0</v>
-      </c>
-      <c r="N73" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O73" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P73" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="7">
-        <v>0</v>
-      </c>
-      <c r="R73" s="7">
-        <v>0</v>
-      </c>
-      <c r="S73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>100013</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="7">
-        <v>4</v>
-      </c>
-      <c r="D74" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F74" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="G74" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="I74" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="J74" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K74" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L74" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M74" s="7">
-        <v>0</v>
-      </c>
-      <c r="N74" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O74" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P74" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="7">
-        <v>0</v>
-      </c>
-      <c r="R74" s="7">
-        <v>0</v>
-      </c>
-      <c r="S74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>100013</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="7">
-        <v>5</v>
-      </c>
-      <c r="D75" s="7">
-        <v>9</v>
-      </c>
-      <c r="E75" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="H75" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I75" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J75" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="K75" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="L75" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M75" s="7">
-        <v>0</v>
-      </c>
-      <c r="N75" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O75" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P75" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="7">
-        <v>0</v>
-      </c>
-      <c r="R75" s="7">
-        <v>0</v>
-      </c>
-      <c r="S75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="16">
-        <v>100013</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="16">
-        <v>6</v>
-      </c>
-      <c r="D76" s="16">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E76" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F76" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="G76" s="16">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H76" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="I76" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="J76" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K76" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L76" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="M76" s="16">
-        <v>0</v>
-      </c>
-      <c r="N76" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O76" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P76" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="16">
-        <v>0</v>
-      </c>
-      <c r="R76" s="16">
-        <v>0</v>
-      </c>
-      <c r="S76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
-        <v>100014</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="13">
-        <v>1</v>
-      </c>
-      <c r="D77" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="E77" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="F77" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G77" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="H77" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J77" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K77" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="L77" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="M77" s="13">
-        <v>0</v>
-      </c>
-      <c r="N77" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="O77" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="P77" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="13">
-        <v>0</v>
-      </c>
-      <c r="R77" s="13">
-        <v>0</v>
-      </c>
-      <c r="S77" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
-        <v>100014</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="7">
-        <v>2</v>
-      </c>
-      <c r="D78" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="E78" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G78" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="J78" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K78" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="L78" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="M78" s="7">
-        <v>0</v>
-      </c>
-      <c r="N78" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="O78" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="P78" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="7">
-        <v>0</v>
-      </c>
-      <c r="R78" s="7">
-        <v>0</v>
-      </c>
-      <c r="S78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
-        <v>100014</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="7">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7">
-        <v>7.6</v>
-      </c>
-      <c r="E79" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H79" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J79" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="K79" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="L79" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M79" s="7">
-        <v>0</v>
-      </c>
-      <c r="N79" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O79" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P79" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="7">
-        <v>0</v>
-      </c>
-      <c r="R79" s="7">
-        <v>0</v>
-      </c>
-      <c r="S79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>100014</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="7">
-        <v>4</v>
-      </c>
-      <c r="D80" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E80" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="G80" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="J80" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K80" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L80" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M80" s="7">
-        <v>0</v>
-      </c>
-      <c r="N80" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O80" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P80" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="7">
-        <v>0</v>
-      </c>
-      <c r="R80" s="7">
-        <v>0</v>
-      </c>
-      <c r="S80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>100014</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="7">
-        <v>5</v>
-      </c>
-      <c r="D81" s="7">
-        <v>9</v>
-      </c>
-      <c r="E81" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="H81" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J81" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="K81" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="L81" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0</v>
-      </c>
-      <c r="N81" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O81" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P81" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0</v>
-      </c>
-      <c r="R81" s="7">
-        <v>0</v>
-      </c>
-      <c r="S81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="16">
-        <v>100014</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="16">
-        <v>6</v>
-      </c>
-      <c r="D82" s="16">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E82" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F82" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="G82" s="16">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H82" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="I82" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="J82" s="16">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K82" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L82" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="M82" s="16">
-        <v>0</v>
-      </c>
-      <c r="N82" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O82" s="16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P82" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="16">
-        <v>0</v>
-      </c>
-      <c r="R82" s="16">
-        <v>0</v>
-      </c>
-      <c r="S82" s="16">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Android/ExcelData/PC_Level_Stat_Table.xlsx
+++ b/Android/ExcelData/PC_Level_Stat_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733EB2F7-2FBC-444D-A87A-9CD8321A7AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE81F5B-722E-456C-9C29-BF08BAFD036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39585" yWindow="2265" windowWidth="37215" windowHeight="19335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41955" yWindow="4320" windowWidth="31875" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!시뮬레이터" sheetId="2" r:id="rId1"/>
@@ -2420,7 +2420,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="D11" s="42">
         <f>ROUNDUP(pc_stat_data!V11,3)</f>
-        <v>4.6050000000000004</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="E11" s="13">
         <f>ROUNDUP(pc_stat_data!U11,3)</f>
-        <v>1.0720000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="F11" s="23">
         <v>0</v>
@@ -3237,14 +3237,14 @@
       </c>
       <c r="U11" s="48">
         <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$5 + ('!시뮬레이터'!C$5-V11)*0.1 - T11)*Z$5)  -  ((pc_stat_data!I11+pc_stat_data!J11-'!시뮬레이터'!H$5)*0.075)  -  ((pc_stat_data!K11+pc_stat_data!L11-'!시뮬레이터'!J$5)*0.075),3)</f>
-        <v>1.0719999999999998</v>
+        <v>1.0799999999999998</v>
       </c>
       <c r="V11" s="48">
         <f>('!시뮬레이터'!C$5 - (W11/2 *Y$5) - (pc_stat_data!G11+pc_stat_data!H11 - ('!시뮬레이터'!F$5+'!시뮬레이터'!G$5)*0.9901) - ((pc_stat_data!M11-'!시뮬레이터'!O$5)*0.1996) - ((pc_stat_data!N11-'!시뮬레이터'!M$5)*0.9901)) *X11</f>
-        <v>4.6046336800000001</v>
+        <v>4.5046336800000004</v>
       </c>
       <c r="W11" s="49">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X11" s="48">
         <v>0.8</v>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="D12" s="7">
         <f>ROUNDUP(pc_stat_data!V12,3)</f>
-        <v>5.008</v>
+        <v>4.9080000000000004</v>
       </c>
       <c r="E12" s="7">
         <f>ROUNDUP(pc_stat_data!U12,3)</f>
-        <v>1.119</v>
+        <v>1.127</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -3316,14 +3316,14 @@
       </c>
       <c r="U12" s="48">
         <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$6 + ('!시뮬레이터'!C$6-V12)*0.1 - T12)*Z$5)  -  ((pc_stat_data!I12+pc_stat_data!J12-'!시뮬레이터'!H$6)*0.075)  -  ((pc_stat_data!K12+pc_stat_data!L12-'!시뮬레이터'!J$65)*0.075),3)</f>
-        <v>1.119</v>
+        <v>1.1269999999999998</v>
       </c>
       <c r="V12" s="48">
         <f>('!시뮬레이터'!C$6 - (W12/2 *Y$5) - (pc_stat_data!G12+pc_stat_data!H12 - ('!시뮬레이터'!F$6+'!시뮬레이터'!G$6)*0.9901) - ((pc_stat_data!M12-'!시뮬레이터'!O$6)*0.1996) - ((pc_stat_data!N12-'!시뮬레이터'!M$6)*0.9901)) *X12</f>
-        <v>5.0073465600000002</v>
+        <v>4.9073465600000006</v>
       </c>
       <c r="W12" s="48">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X12" s="48">
         <v>0.8</v>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="D13" s="7">
         <f>ROUNDUP(pc_stat_data!V13,3)</f>
-        <v>5.4110000000000005</v>
+        <v>5.3109999999999999</v>
       </c>
       <c r="E13" s="7">
         <f>ROUNDUP(pc_stat_data!U13,3)</f>
-        <v>1.1679999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -3395,14 +3395,14 @@
       </c>
       <c r="U13" s="48">
         <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$7 + ('!시뮬레이터'!C$7-V13)*0.1 - T13)*Z$5)  -  ((pc_stat_data!I13+pc_stat_data!J13-'!시뮬레이터'!H$7)*0.075)  -  ((pc_stat_data!K13+pc_stat_data!L13-'!시뮬레이터'!J$7)*0.075),3)</f>
-        <v>1.1679999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="V13" s="48">
         <f>('!시뮬레이터'!C$7 - (W13/2 *Y$5) - (pc_stat_data!G13+pc_stat_data!H13 - ('!시뮬레이터'!F$7+'!시뮬레이터'!G$7)*0.9901) - ((pc_stat_data!M13-'!시뮬레이터'!O$7)*0.1996) - ((pc_stat_data!N13-'!시뮬레이터'!M$7)*0.9901)) *X13</f>
-        <v>5.4100594400000013</v>
+        <v>5.3100594400000007</v>
       </c>
       <c r="W13" s="48">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X13" s="48">
         <v>0.8</v>
@@ -3420,11 +3420,11 @@
       </c>
       <c r="D14" s="7">
         <f>ROUNDUP(pc_stat_data!V14,3)</f>
-        <v>5.8130000000000006</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="E14" s="7">
         <f>ROUNDUP(pc_stat_data!U14,3)</f>
-        <v>1.2150000000000001</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -3474,14 +3474,14 @@
       </c>
       <c r="U14" s="48">
         <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$8 + ('!시뮬레이터'!C$8-V14)*0.1 - T14)*Z$5)  -  ((pc_stat_data!I14+pc_stat_data!J14-'!시뮬레이터'!H$8)*0.075)  -  ((pc_stat_data!K14+pc_stat_data!L14-'!시뮬레이터'!J$8)*0.075),3)</f>
-        <v>1.2149999999999999</v>
+        <v>1.2229999999999999</v>
       </c>
       <c r="V14" s="48">
         <f>('!시뮬레이터'!C$8 - (W14/2 *Y$5) - (pc_stat_data!G14+pc_stat_data!H14 - ('!시뮬레이터'!F$8+'!시뮬레이터'!G$8)*0.9901) - ((pc_stat_data!M14-'!시뮬레이터'!O$8)*0.1996) - ((pc_stat_data!N14-'!시뮬레이터'!M$8)*0.9901)) *X14</f>
-        <v>5.8127723200000005</v>
+        <v>5.7127723200000009</v>
       </c>
       <c r="W14" s="48">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X14" s="48">
         <v>0.8</v>
@@ -3499,11 +3499,11 @@
       </c>
       <c r="D15" s="7">
         <f>ROUNDUP(pc_stat_data!V15,3)</f>
-        <v>6.2160000000000002</v>
+        <v>6.1160000000000005</v>
       </c>
       <c r="E15" s="7">
         <f>ROUNDUP(pc_stat_data!U15,3)</f>
-        <v>1.2629999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="U15" s="48">
         <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$9 + ('!시뮬레이터'!C$9-V15)*0.1 - T15)*Z$5)  -  ((pc_stat_data!I15+pc_stat_data!J15-'!시뮬레이터'!H$9)*0.075)  -  ((pc_stat_data!K15+pc_stat_data!L15-'!시뮬레이터'!J$9)*0.075),3)</f>
-        <v>1.2629999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="V15" s="48">
         <f>('!시뮬레이터'!C$9 - (W15/2 *Y$5) - (pc_stat_data!G15+pc_stat_data!H15 - ('!시뮬레이터'!F$9+'!시뮬레이터'!G$9)*0.9901) - ((pc_stat_data!M15-'!시뮬레이터'!O$9)*0.1996) - ((pc_stat_data!N15-'!시뮬레이터'!M$9)*0.9901)) *X15</f>
-        <v>6.2154851999999998</v>
+        <v>6.1154852000000002</v>
       </c>
       <c r="W15" s="48">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" s="48">
         <v>0.8</v>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="D16" s="16">
         <f>ROUNDUP(pc_stat_data!V16,3)</f>
-        <v>6.6190000000000007</v>
+        <v>6.5190000000000001</v>
       </c>
       <c r="E16" s="16">
         <f>ROUNDUP(pc_stat_data!U16,3)</f>
-        <v>1.3109999999999999</v>
+        <v>1.319</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -3632,14 +3632,14 @@
       </c>
       <c r="U16" s="48">
         <f xml:space="preserve"> ROUNDUP((('!시뮬레이터'!D$10 + ('!시뮬레이터'!C$10-V16)*0.1 - T16)*Z$5)  -  ((pc_stat_data!I16+pc_stat_data!J16-'!시뮬레이터'!H$10)*0.075)  -  ((pc_stat_data!K16+pc_stat_data!L16-'!시뮬레이터'!J$10)*0.075),3)</f>
-        <v>1.3109999999999999</v>
+        <v>1.319</v>
       </c>
       <c r="V16" s="48">
         <f>('!시뮬레이터'!C$10 - (W16/2 *Y$5) - (pc_stat_data!G16+pc_stat_data!H16 - ('!시뮬레이터'!F$10+'!시뮬레이터'!G$10)*0.9901) - ((pc_stat_data!M16-'!시뮬레이터'!O$10)*0.1996) - ((pc_stat_data!N16-'!시뮬레이터'!M$10)*0.9901)) *X16</f>
-        <v>6.6181980800000009</v>
+        <v>6.5181980800000012</v>
       </c>
       <c r="W16" s="48">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X16" s="48">
         <v>0.8</v>

--- a/Android/ExcelData/PC_Level_Stat_Table.xlsx
+++ b/Android/ExcelData/PC_Level_Stat_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE81F5B-722E-456C-9C29-BF08BAFD036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C08E72-72C3-4474-B38F-699BA8075F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41955" yWindow="4320" windowWidth="31875" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="900" windowWidth="34335" windowHeight="18780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!시뮬레이터" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="107">
   <si>
     <t>캐릭터 설명(기획)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -454,6 +454,39 @@
   <si>
     <t>#탱킹력</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국장</t>
+  </si>
+  <si>
+    <t>에일린(스킨)</t>
+  </si>
+  <si>
+    <t>엘리자베스(스킨)</t>
+  </si>
+  <si>
+    <t>마네(스킨)</t>
+  </si>
+  <si>
+    <t>녹는 악마</t>
+  </si>
+  <si>
+    <t>유미 (구)</t>
+  </si>
+  <si>
+    <t>유미 (신)</t>
+  </si>
+  <si>
+    <t>모리나</t>
+  </si>
+  <si>
+    <t>모리나(스킨)</t>
+  </si>
+  <si>
+    <t>소피아</t>
+  </si>
+  <si>
+    <t>라미</t>
   </si>
 </sst>
 </file>
@@ -2414,13 +2447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6963,6 +6996,3966 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="37">
+        <f>A53+1</f>
+        <v>100010</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11">
+        <v>4.5550000000000006</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>1.0059999999999998</v>
+      </c>
+      <c r="G59" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="27">
+        <f t="shared" ref="A60:A123" si="1">A54+1</f>
+        <v>100010</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
+        <v>4.907</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1.0419999999999998</v>
+      </c>
+      <c r="G60" s="7">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="27">
+        <f t="shared" si="1"/>
+        <v>100010</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="7">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>1.081</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="27">
+        <f t="shared" si="1"/>
+        <v>100010</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="7">
+        <v>4</v>
+      </c>
+      <c r="D62" s="7">
+        <v>5.6120000000000001</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+      <c r="O62" s="11">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" s="27">
+        <f t="shared" si="1"/>
+        <v>100010</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="7">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.9640000000000004</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+      <c r="O63" s="11">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="38">
+        <f t="shared" si="1"/>
+        <v>100010</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="16">
+        <v>6</v>
+      </c>
+      <c r="D64" s="16">
+        <v>6.3160000000000007</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16">
+        <v>1.1929999999999998</v>
+      </c>
+      <c r="G64" s="16">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H64" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I64" s="16">
+        <v>0</v>
+      </c>
+      <c r="J64" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K64" s="16">
+        <v>0</v>
+      </c>
+      <c r="L64" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M64" s="16">
+        <v>0</v>
+      </c>
+      <c r="N64" s="16">
+        <v>0</v>
+      </c>
+      <c r="O64" s="16">
+        <v>0</v>
+      </c>
+      <c r="P64" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="Q64" s="16">
+        <v>0</v>
+      </c>
+      <c r="R64" s="16">
+        <v>0</v>
+      </c>
+      <c r="S64" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="37">
+        <f t="shared" si="1"/>
+        <v>100011</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="42">
+        <v>1</v>
+      </c>
+      <c r="D65" s="42">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1.08</v>
+      </c>
+      <c r="F65" s="23">
+        <v>0</v>
+      </c>
+      <c r="G65" s="42">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H65" s="23">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I65" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J65" s="23">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L65" s="23">
+        <v>0</v>
+      </c>
+      <c r="M65" s="42">
+        <v>0</v>
+      </c>
+      <c r="N65" s="42">
+        <v>0</v>
+      </c>
+      <c r="O65" s="42">
+        <v>0</v>
+      </c>
+      <c r="P65" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="42">
+        <v>0</v>
+      </c>
+      <c r="R65" s="42">
+        <v>0</v>
+      </c>
+      <c r="S65" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="27">
+        <f t="shared" si="1"/>
+        <v>100011</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="7">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7">
+        <v>4.9080000000000004</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1.127</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I66" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="27">
+        <f t="shared" si="1"/>
+        <v>100011</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="27">
+        <f t="shared" si="1"/>
+        <v>100011</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="7">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I68" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="27">
+        <f t="shared" si="1"/>
+        <v>100011</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="7">
+        <v>5</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6.1160000000000005</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H69" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="38">
+        <f t="shared" si="1"/>
+        <v>100011</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="16">
+        <v>6</v>
+      </c>
+      <c r="D70" s="16">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="E70" s="16">
+        <v>1.319</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0</v>
+      </c>
+      <c r="G70" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="H70" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="I70" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J70" s="16">
+        <v>0</v>
+      </c>
+      <c r="K70" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L70" s="16">
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <v>0</v>
+      </c>
+      <c r="N70" s="16">
+        <v>0</v>
+      </c>
+      <c r="O70" s="16">
+        <v>0</v>
+      </c>
+      <c r="P70" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <v>0</v>
+      </c>
+      <c r="R70" s="16">
+        <v>0</v>
+      </c>
+      <c r="S70" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="37">
+        <f t="shared" si="1"/>
+        <v>100012</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13">
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H71" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0</v>
+      </c>
+      <c r="N71" s="13">
+        <v>0</v>
+      </c>
+      <c r="O71" s="13">
+        <v>0</v>
+      </c>
+      <c r="P71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>0</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0</v>
+      </c>
+      <c r="S71" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="27">
+        <f t="shared" si="1"/>
+        <v>100012</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7">
+        <v>6.008</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="27">
+        <f t="shared" si="1"/>
+        <v>100012</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="7">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7">
+        <v>6.4110000000000005</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1.085</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="27">
+        <f t="shared" si="1"/>
+        <v>100012</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="7">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6.8130000000000006</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1.131</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="27">
+        <f t="shared" si="1"/>
+        <v>100012</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="7">
+        <v>5</v>
+      </c>
+      <c r="D75" s="7">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H75" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="38">
+        <f t="shared" si="1"/>
+        <v>100012</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="16">
+        <v>6</v>
+      </c>
+      <c r="D76" s="16">
+        <v>7.6190000000000007</v>
+      </c>
+      <c r="E76" s="16">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="H76" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L76" s="16">
+        <v>0</v>
+      </c>
+      <c r="M76" s="16">
+        <v>0</v>
+      </c>
+      <c r="N76" s="16">
+        <v>0</v>
+      </c>
+      <c r="O76" s="16">
+        <v>0</v>
+      </c>
+      <c r="P76" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16">
+        <v>0</v>
+      </c>
+      <c r="R76" s="16">
+        <v>0</v>
+      </c>
+      <c r="S76" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="37">
+        <f t="shared" si="1"/>
+        <v>100013</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13">
+        <v>5.4050000000000002</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H77" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I77" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="13">
+        <v>0</v>
+      </c>
+      <c r="N77" s="13">
+        <v>0</v>
+      </c>
+      <c r="O77" s="13">
+        <v>0</v>
+      </c>
+      <c r="P77" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>0</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0</v>
+      </c>
+      <c r="S77" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="27">
+        <f t="shared" si="1"/>
+        <v>100013</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2</v>
+      </c>
+      <c r="D78" s="7">
+        <v>5.8080000000000007</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I78" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="27">
+        <f t="shared" si="1"/>
+        <v>100013</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="7">
+        <v>3</v>
+      </c>
+      <c r="D79" s="7">
+        <v>6.2110000000000003</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1.101</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H79" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="27">
+        <f t="shared" si="1"/>
+        <v>100013</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="7">
+        <v>4</v>
+      </c>
+      <c r="D80" s="7">
+        <v>6.6130000000000004</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1.147</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="H80" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I80" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="27">
+        <f t="shared" si="1"/>
+        <v>100013</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="7">
+        <v>5</v>
+      </c>
+      <c r="D81" s="7">
+        <v>7.016</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1.194</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H81" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="38">
+        <f t="shared" si="1"/>
+        <v>100013</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="16">
+        <v>6</v>
+      </c>
+      <c r="D82" s="16">
+        <v>7.4190000000000005</v>
+      </c>
+      <c r="E82" s="16">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F82" s="16">
+        <v>0</v>
+      </c>
+      <c r="G82" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="H82" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="I82" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="L82" s="16">
+        <v>0</v>
+      </c>
+      <c r="M82" s="16">
+        <v>0</v>
+      </c>
+      <c r="N82" s="16">
+        <v>0</v>
+      </c>
+      <c r="O82" s="16">
+        <v>0</v>
+      </c>
+      <c r="P82" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16">
+        <v>0</v>
+      </c>
+      <c r="R82" s="16">
+        <v>0</v>
+      </c>
+      <c r="S82" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="37">
+        <f t="shared" si="1"/>
+        <v>100014</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="13">
+        <v>0</v>
+      </c>
+      <c r="N83" s="13">
+        <v>0</v>
+      </c>
+      <c r="O83" s="13">
+        <v>0</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>0</v>
+      </c>
+      <c r="R83" s="13">
+        <v>0</v>
+      </c>
+      <c r="S83" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="27">
+        <f t="shared" si="1"/>
+        <v>100014</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="7">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7">
+        <v>7.4790000000000001</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="27">
+        <f t="shared" si="1"/>
+        <v>100014</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="7">
+        <v>3</v>
+      </c>
+      <c r="D85" s="7">
+        <v>7.9540000000000006</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0</v>
+      </c>
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="27">
+        <f t="shared" si="1"/>
+        <v>100014</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="7">
+        <v>4</v>
+      </c>
+      <c r="D86" s="7">
+        <v>8.43</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H86" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="27">
+        <f t="shared" si="1"/>
+        <v>100014</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="7">
+        <v>5</v>
+      </c>
+      <c r="D87" s="7">
+        <v>8.9059999999999988</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="38">
+        <f t="shared" si="1"/>
+        <v>100014</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="16">
+        <v>6</v>
+      </c>
+      <c r="D88" s="16">
+        <v>9.3819999999999997</v>
+      </c>
+      <c r="E88" s="16">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="H88" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <v>0</v>
+      </c>
+      <c r="L88" s="16">
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <v>0</v>
+      </c>
+      <c r="N88" s="16">
+        <v>0</v>
+      </c>
+      <c r="O88" s="16">
+        <v>0</v>
+      </c>
+      <c r="P88" s="16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q88" s="16">
+        <v>0</v>
+      </c>
+      <c r="R88" s="16">
+        <v>0</v>
+      </c>
+      <c r="S88" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="37">
+        <f t="shared" si="1"/>
+        <v>100015</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13">
+        <v>7.4560000000000004</v>
+      </c>
+      <c r="E89" s="13">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H89" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
+        <v>0</v>
+      </c>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+      <c r="O89" s="13">
+        <v>0</v>
+      </c>
+      <c r="P89" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>0</v>
+      </c>
+      <c r="R89" s="13">
+        <v>0</v>
+      </c>
+      <c r="S89" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="27">
+        <f t="shared" si="1"/>
+        <v>100015</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="7">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>7.9570000000000007</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="27">
+        <f t="shared" si="1"/>
+        <v>100015</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="7">
+        <v>3</v>
+      </c>
+      <c r="D91" s="7">
+        <v>8.4580000000000002</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H91" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="27">
+        <f t="shared" si="1"/>
+        <v>100015</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="7">
+        <v>4</v>
+      </c>
+      <c r="D92" s="7">
+        <v>8.9589999999999996</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="27">
+        <f t="shared" si="1"/>
+        <v>100015</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="7">
+        <v>5</v>
+      </c>
+      <c r="D93" s="7">
+        <v>9.4599999999999991</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H93" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0</v>
+      </c>
+      <c r="N93" s="7">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>0</v>
+      </c>
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+      <c r="S93" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="38">
+        <f t="shared" si="1"/>
+        <v>100015</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="16">
+        <v>6</v>
+      </c>
+      <c r="D94" s="16">
+        <v>9.9610000000000003</v>
+      </c>
+      <c r="E94" s="16">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F94" s="16">
+        <v>0</v>
+      </c>
+      <c r="G94" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H94" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I94" s="16">
+        <v>0</v>
+      </c>
+      <c r="J94" s="16">
+        <v>0</v>
+      </c>
+      <c r="K94" s="16">
+        <v>0</v>
+      </c>
+      <c r="L94" s="16">
+        <v>0</v>
+      </c>
+      <c r="M94" s="16">
+        <v>0</v>
+      </c>
+      <c r="N94" s="16">
+        <v>0</v>
+      </c>
+      <c r="O94" s="16">
+        <v>0</v>
+      </c>
+      <c r="P94" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="Q94" s="16">
+        <v>0</v>
+      </c>
+      <c r="R94" s="16">
+        <v>0</v>
+      </c>
+      <c r="S94" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="37">
+        <f t="shared" si="1"/>
+        <v>100016</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1</v>
+      </c>
+      <c r="D95" s="13">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H95" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I95" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+      <c r="O95" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>0</v>
+      </c>
+      <c r="R95" s="13">
+        <v>0</v>
+      </c>
+      <c r="S95" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="27">
+        <f t="shared" si="1"/>
+        <v>100016</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="7">
+        <v>2</v>
+      </c>
+      <c r="D96" s="7">
+        <v>5.0790000000000006</v>
+      </c>
+      <c r="E96" s="7">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H96" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I96" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7">
+        <v>0</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0</v>
+      </c>
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P96" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>0</v>
+      </c>
+      <c r="R96" s="7">
+        <v>0</v>
+      </c>
+      <c r="S96" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="27">
+        <f t="shared" si="1"/>
+        <v>100016</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="7">
+        <v>3</v>
+      </c>
+      <c r="D97" s="7">
+        <v>5.4610000000000003</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1.165</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H97" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="7">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0</v>
+      </c>
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>0</v>
+      </c>
+      <c r="R97" s="7">
+        <v>0</v>
+      </c>
+      <c r="S97" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="27">
+        <f t="shared" si="1"/>
+        <v>100016</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="7">
+        <v>4</v>
+      </c>
+      <c r="D98" s="7">
+        <v>5.843</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H98" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I98" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="7">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7">
+        <v>0</v>
+      </c>
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P98" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>0</v>
+      </c>
+      <c r="R98" s="7">
+        <v>0</v>
+      </c>
+      <c r="S98" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="27">
+        <f t="shared" si="1"/>
+        <v>100016</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="7">
+        <v>5</v>
+      </c>
+      <c r="D99" s="7">
+        <v>6.226</v>
+      </c>
+      <c r="E99" s="7">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H99" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0</v>
+      </c>
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P99" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>0</v>
+      </c>
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+      <c r="S99" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="38">
+        <f t="shared" si="1"/>
+        <v>100016</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="16">
+        <v>6</v>
+      </c>
+      <c r="D100" s="16">
+        <v>6.6080000000000005</v>
+      </c>
+      <c r="E100" s="16">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="F100" s="16">
+        <v>0</v>
+      </c>
+      <c r="G100" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H100" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I100" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J100" s="16">
+        <v>0</v>
+      </c>
+      <c r="K100" s="16">
+        <v>0</v>
+      </c>
+      <c r="L100" s="16">
+        <v>0</v>
+      </c>
+      <c r="M100" s="16">
+        <v>0</v>
+      </c>
+      <c r="N100" s="16">
+        <v>0</v>
+      </c>
+      <c r="O100" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P100" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="16">
+        <v>0</v>
+      </c>
+      <c r="R100" s="16">
+        <v>0</v>
+      </c>
+      <c r="S100" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="37">
+        <f t="shared" si="1"/>
+        <v>100017</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="13">
+        <v>1</v>
+      </c>
+      <c r="D101" s="13">
+        <v>6.1510000000000007</v>
+      </c>
+      <c r="E101" s="13">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F101" s="11">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H101" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I101" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+      <c r="L101" s="4">
+        <v>0</v>
+      </c>
+      <c r="M101" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="N101" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="O101" s="13">
+        <v>0</v>
+      </c>
+      <c r="P101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>0</v>
+      </c>
+      <c r="R101" s="13">
+        <v>0</v>
+      </c>
+      <c r="S101" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="27">
+        <f t="shared" si="1"/>
+        <v>100017</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="7">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7">
+        <v>6.5830000000000002</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H102" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I102" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7">
+        <v>0</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="N102" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O102" s="7">
+        <v>0</v>
+      </c>
+      <c r="P102" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>0</v>
+      </c>
+      <c r="R102" s="7">
+        <v>0</v>
+      </c>
+      <c r="S102" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="27">
+        <f t="shared" si="1"/>
+        <v>100017</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="7">
+        <v>3</v>
+      </c>
+      <c r="D103" s="7">
+        <v>7.0100000000000007</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0</v>
+      </c>
+      <c r="G103" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H103" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+      <c r="K103" s="7">
+        <v>0</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0</v>
+      </c>
+      <c r="M103" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N103" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O103" s="7">
+        <v>0</v>
+      </c>
+      <c r="P103" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>0</v>
+      </c>
+      <c r="R103" s="7">
+        <v>0</v>
+      </c>
+      <c r="S103" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="27">
+        <f t="shared" si="1"/>
+        <v>100017</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="7">
+        <v>4</v>
+      </c>
+      <c r="D104" s="7">
+        <v>7.4380000000000006</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1.087</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0</v>
+      </c>
+      <c r="G104" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H104" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I104" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J104" s="7">
+        <v>0</v>
+      </c>
+      <c r="K104" s="7">
+        <v>0</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0</v>
+      </c>
+      <c r="M104" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="N104" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+      <c r="P104" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>0</v>
+      </c>
+      <c r="R104" s="7">
+        <v>0</v>
+      </c>
+      <c r="S104" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="27">
+        <f t="shared" si="1"/>
+        <v>100017</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="7">
+        <v>5</v>
+      </c>
+      <c r="D105" s="7">
+        <v>7.8650000000000002</v>
+      </c>
+      <c r="E105" s="7">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H105" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J105" s="7">
+        <v>0</v>
+      </c>
+      <c r="K105" s="7">
+        <v>0</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0</v>
+      </c>
+      <c r="M105" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="N105" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+      <c r="P105" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>0</v>
+      </c>
+      <c r="R105" s="7">
+        <v>0</v>
+      </c>
+      <c r="S105" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="38">
+        <f t="shared" si="1"/>
+        <v>100017</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="16">
+        <v>6</v>
+      </c>
+      <c r="D106" s="16">
+        <v>8.2929999999999993</v>
+      </c>
+      <c r="E106" s="16">
+        <v>1.18</v>
+      </c>
+      <c r="F106" s="16">
+        <v>0</v>
+      </c>
+      <c r="G106" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H106" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I106" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J106" s="16">
+        <v>0</v>
+      </c>
+      <c r="K106" s="16">
+        <v>0</v>
+      </c>
+      <c r="L106" s="16">
+        <v>0</v>
+      </c>
+      <c r="M106" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="N106" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O106" s="16">
+        <v>0</v>
+      </c>
+      <c r="P106" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="16">
+        <v>0</v>
+      </c>
+      <c r="R106" s="16">
+        <v>0</v>
+      </c>
+      <c r="S106" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="37">
+        <f t="shared" si="1"/>
+        <v>100018</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1</v>
+      </c>
+      <c r="D107" s="11">
+        <v>4.2010000000000005</v>
+      </c>
+      <c r="E107" s="11">
+        <v>0</v>
+      </c>
+      <c r="F107" s="13">
+        <v>1.105</v>
+      </c>
+      <c r="G107" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0</v>
+      </c>
+      <c r="M107" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N107" s="13">
+        <v>0</v>
+      </c>
+      <c r="O107" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="P107" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="11">
+        <v>0</v>
+      </c>
+      <c r="R107" s="11">
+        <v>0</v>
+      </c>
+      <c r="S107" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="27">
+        <f t="shared" si="1"/>
+        <v>100018</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="7">
+        <v>2</v>
+      </c>
+      <c r="D108" s="7">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="G108" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K108" s="7">
+        <v>0</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0</v>
+      </c>
+      <c r="M108" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P108" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>0</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0</v>
+      </c>
+      <c r="S108" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="27">
+        <f t="shared" si="1"/>
+        <v>100018</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="7">
+        <v>3</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4.907</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="G109" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0</v>
+      </c>
+      <c r="J109" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K109" s="7">
+        <v>0</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0</v>
+      </c>
+      <c r="M109" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="P109" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>0</v>
+      </c>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="27">
+        <f t="shared" si="1"/>
+        <v>100018</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="7">
+        <v>4</v>
+      </c>
+      <c r="D110" s="7">
+        <v>5.2600000000000007</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1.262</v>
+      </c>
+      <c r="G110" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="H110" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K110" s="7">
+        <v>0</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>0</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+      <c r="S110" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="27">
+        <f t="shared" si="1"/>
+        <v>100018</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="7">
+        <v>5</v>
+      </c>
+      <c r="D111" s="4">
+        <v>5.6130000000000004</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="G111" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K111" s="7">
+        <v>0</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0</v>
+      </c>
+      <c r="M111" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P111" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>0</v>
+      </c>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+      <c r="S111" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="38">
+        <f t="shared" si="1"/>
+        <v>100018</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="16">
+        <v>6</v>
+      </c>
+      <c r="D112" s="16">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="E112" s="16">
+        <v>0</v>
+      </c>
+      <c r="F112" s="16">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="G112" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H112" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I112" s="16">
+        <v>0</v>
+      </c>
+      <c r="J112" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K112" s="16">
+        <v>0</v>
+      </c>
+      <c r="L112" s="16">
+        <v>0</v>
+      </c>
+      <c r="M112" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="N112" s="16">
+        <v>0</v>
+      </c>
+      <c r="O112" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P112" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="16">
+        <v>0</v>
+      </c>
+      <c r="R112" s="16">
+        <v>0</v>
+      </c>
+      <c r="S112" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="37">
+        <f t="shared" si="1"/>
+        <v>100019</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="11">
+        <v>1</v>
+      </c>
+      <c r="D113" s="11">
+        <v>4.5550000000000006</v>
+      </c>
+      <c r="E113" s="11">
+        <v>0</v>
+      </c>
+      <c r="F113" s="11">
+        <v>1.0059999999999998</v>
+      </c>
+      <c r="G113" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H113" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I113" s="11">
+        <v>0</v>
+      </c>
+      <c r="J113" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K113" s="11">
+        <v>0</v>
+      </c>
+      <c r="L113" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="M113" s="11">
+        <v>0</v>
+      </c>
+      <c r="N113" s="11">
+        <v>0</v>
+      </c>
+      <c r="O113" s="11">
+        <v>0</v>
+      </c>
+      <c r="P113" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="Q113" s="11">
+        <v>0</v>
+      </c>
+      <c r="R113" s="11">
+        <v>0</v>
+      </c>
+      <c r="S113" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="27">
+        <f t="shared" si="1"/>
+        <v>100019</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="7">
+        <v>2</v>
+      </c>
+      <c r="D114" s="7">
+        <v>4.907</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1.0419999999999998</v>
+      </c>
+      <c r="G114" s="7">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H114" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I114" s="7">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K114" s="7">
+        <v>0</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M114" s="7">
+        <v>0</v>
+      </c>
+      <c r="N114" s="11">
+        <v>0</v>
+      </c>
+      <c r="O114" s="11">
+        <v>0</v>
+      </c>
+      <c r="P114" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>0</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0</v>
+      </c>
+      <c r="S114" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="27">
+        <f t="shared" si="1"/>
+        <v>100019</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="7">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0</v>
+      </c>
+      <c r="F115" s="11">
+        <v>1.081</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I115" s="7">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K115" s="7">
+        <v>0</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M115" s="7">
+        <v>0</v>
+      </c>
+      <c r="N115" s="11">
+        <v>0</v>
+      </c>
+      <c r="O115" s="11">
+        <v>0</v>
+      </c>
+      <c r="P115" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>0</v>
+      </c>
+      <c r="R115" s="7">
+        <v>0</v>
+      </c>
+      <c r="S115" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="27">
+        <f t="shared" si="1"/>
+        <v>100019</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="7">
+        <v>4</v>
+      </c>
+      <c r="D116" s="7">
+        <v>5.6120000000000001</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="G116" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H116" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K116" s="7">
+        <v>0</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M116" s="7">
+        <v>0</v>
+      </c>
+      <c r="N116" s="11">
+        <v>0</v>
+      </c>
+      <c r="O116" s="11">
+        <v>0</v>
+      </c>
+      <c r="P116" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>0</v>
+      </c>
+      <c r="R116" s="7">
+        <v>0</v>
+      </c>
+      <c r="S116" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="27">
+        <f t="shared" si="1"/>
+        <v>100019</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="7">
+        <v>5</v>
+      </c>
+      <c r="D117" s="4">
+        <v>5.9640000000000004</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="F117" s="11">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="G117" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K117" s="7">
+        <v>0</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M117" s="7">
+        <v>0</v>
+      </c>
+      <c r="N117" s="11">
+        <v>0</v>
+      </c>
+      <c r="O117" s="11">
+        <v>0</v>
+      </c>
+      <c r="P117" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>0</v>
+      </c>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="38">
+        <f t="shared" si="1"/>
+        <v>100019</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="16">
+        <v>6</v>
+      </c>
+      <c r="D118" s="16">
+        <v>6.3160000000000007</v>
+      </c>
+      <c r="E118" s="16">
+        <v>0</v>
+      </c>
+      <c r="F118" s="16">
+        <v>1.1929999999999998</v>
+      </c>
+      <c r="G118" s="16">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H118" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I118" s="16">
+        <v>0</v>
+      </c>
+      <c r="J118" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K118" s="16">
+        <v>0</v>
+      </c>
+      <c r="L118" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M118" s="16">
+        <v>0</v>
+      </c>
+      <c r="N118" s="16">
+        <v>0</v>
+      </c>
+      <c r="O118" s="16">
+        <v>0</v>
+      </c>
+      <c r="P118" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="Q118" s="16">
+        <v>0</v>
+      </c>
+      <c r="R118" s="16">
+        <v>0</v>
+      </c>
+      <c r="S118" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" s="37">
+        <f t="shared" si="1"/>
+        <v>100020</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="42">
+        <v>1</v>
+      </c>
+      <c r="D119" s="42">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="E119" s="13">
+        <v>1.08</v>
+      </c>
+      <c r="F119" s="23">
+        <v>0</v>
+      </c>
+      <c r="G119" s="42">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H119" s="23">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I119" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="J119" s="23">
+        <v>0</v>
+      </c>
+      <c r="K119" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L119" s="23">
+        <v>0</v>
+      </c>
+      <c r="M119" s="42">
+        <v>0</v>
+      </c>
+      <c r="N119" s="42">
+        <v>0</v>
+      </c>
+      <c r="O119" s="42">
+        <v>0</v>
+      </c>
+      <c r="P119" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="42">
+        <v>0</v>
+      </c>
+      <c r="R119" s="42">
+        <v>0</v>
+      </c>
+      <c r="S119" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" s="27">
+        <f t="shared" si="1"/>
+        <v>100020</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="7">
+        <v>2</v>
+      </c>
+      <c r="D120" s="7">
+        <v>4.9080000000000004</v>
+      </c>
+      <c r="E120" s="7">
+        <v>1.127</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H120" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I120" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J120" s="7">
+        <v>0</v>
+      </c>
+      <c r="K120" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7">
+        <v>0</v>
+      </c>
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="7">
+        <v>0</v>
+      </c>
+      <c r="P120" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="7">
+        <v>0</v>
+      </c>
+      <c r="R120" s="7">
+        <v>0</v>
+      </c>
+      <c r="S120" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" s="27">
+        <f t="shared" si="1"/>
+        <v>100020</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="7">
+        <v>3</v>
+      </c>
+      <c r="D121" s="7">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0</v>
+      </c>
+      <c r="G121" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H121" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J121" s="7">
+        <v>0</v>
+      </c>
+      <c r="K121" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L121" s="7">
+        <v>0</v>
+      </c>
+      <c r="M121" s="7">
+        <v>0</v>
+      </c>
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7">
+        <v>0</v>
+      </c>
+      <c r="P121" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>0</v>
+      </c>
+      <c r="R121" s="7">
+        <v>0</v>
+      </c>
+      <c r="S121" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" s="27">
+        <f t="shared" si="1"/>
+        <v>100020</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="7">
+        <v>4</v>
+      </c>
+      <c r="D122" s="7">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0</v>
+      </c>
+      <c r="G122" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="H122" s="7">
+        <v>1.8750000000000003E-2</v>
+      </c>
+      <c r="I122" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J122" s="7">
+        <v>0</v>
+      </c>
+      <c r="K122" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L122" s="7">
+        <v>0</v>
+      </c>
+      <c r="M122" s="7">
+        <v>0</v>
+      </c>
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="7">
+        <v>0</v>
+      </c>
+      <c r="P122" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>0</v>
+      </c>
+      <c r="R122" s="7">
+        <v>0</v>
+      </c>
+      <c r="S122" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" s="27">
+        <f t="shared" si="1"/>
+        <v>100020</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="7">
+        <v>5</v>
+      </c>
+      <c r="D123" s="7">
+        <v>6.1160000000000005</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0</v>
+      </c>
+      <c r="G123" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H123" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J123" s="7">
+        <v>0</v>
+      </c>
+      <c r="K123" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L123" s="7">
+        <v>0</v>
+      </c>
+      <c r="M123" s="7">
+        <v>0</v>
+      </c>
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="7">
+        <v>0</v>
+      </c>
+      <c r="P123" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>0</v>
+      </c>
+      <c r="R123" s="7">
+        <v>0</v>
+      </c>
+      <c r="S123" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="38">
+        <f t="shared" ref="A124" si="2">A118+1</f>
+        <v>100020</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="16">
+        <v>6</v>
+      </c>
+      <c r="D124" s="16">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="E124" s="16">
+        <v>1.319</v>
+      </c>
+      <c r="F124" s="16">
+        <v>0</v>
+      </c>
+      <c r="G124" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="H124" s="16">
+        <v>2.6250000000000002E-2</v>
+      </c>
+      <c r="I124" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J124" s="16">
+        <v>0</v>
+      </c>
+      <c r="K124" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L124" s="16">
+        <v>0</v>
+      </c>
+      <c r="M124" s="16">
+        <v>0</v>
+      </c>
+      <c r="N124" s="16">
+        <v>0</v>
+      </c>
+      <c r="O124" s="16">
+        <v>0</v>
+      </c>
+      <c r="P124" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="16">
+        <v>0</v>
+      </c>
+      <c r="R124" s="16">
+        <v>0</v>
+      </c>
+      <c r="S124" s="45">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
